--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_37.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_15_37.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>3219806.369781068</v>
+        <v>3217403.402213784</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10098310.45603904</v>
+        <v>10098310.45603905</v>
       </c>
     </row>
     <row r="8">
@@ -1154,7 +1154,7 @@
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>6.056421089299432</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1175,28 +1175,28 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
+        <v>0</v>
+      </c>
+      <c r="R8" t="n">
+        <v>0</v>
+      </c>
+      <c r="S8" t="n">
+        <v>6.05642108929943</v>
+      </c>
+      <c r="T8" t="n">
+        <v>0</v>
+      </c>
+      <c r="U8" t="n">
+        <v>0</v>
+      </c>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="n">
+        <v>0</v>
+      </c>
+      <c r="X8" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="R8" t="n">
-        <v>0</v>
-      </c>
-      <c r="S8" t="n">
-        <v>0</v>
-      </c>
-      <c r="T8" t="n">
-        <v>0</v>
-      </c>
-      <c r="U8" t="n">
-        <v>0</v>
-      </c>
-      <c r="V8" t="n">
-        <v>0</v>
-      </c>
-      <c r="W8" t="n">
-        <v>0</v>
-      </c>
-      <c r="X8" t="n">
-        <v>0</v>
       </c>
       <c r="Y8" t="n">
         <v>0</v>
@@ -1224,16 +1224,16 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="H9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1266,13 +1266,13 @@
         <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>0</v>
+        <v>6.056421089299432</v>
       </c>
       <c r="V9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="W9" t="n">
-        <v>5.309829763041575</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="X9" t="n">
         <v>0</v>
@@ -1297,64 +1297,64 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>3.33498035419292</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
+        <v>0</v>
+      </c>
+      <c r="G10" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" t="n">
+        <v>0</v>
+      </c>
+      <c r="I10" t="n">
+        <v>0</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0</v>
+      </c>
+      <c r="O10" t="n">
+        <v>0</v>
+      </c>
+      <c r="P10" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
+      <c r="R10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="G10" t="n">
+      <c r="S10" t="n">
         <v>6.876045741711437</v>
       </c>
-      <c r="H10" t="n">
-        <v>0</v>
-      </c>
-      <c r="I10" t="n">
-        <v>0</v>
-      </c>
-      <c r="J10" t="n">
-        <v>0</v>
-      </c>
-      <c r="K10" t="n">
+      <c r="T10" t="n">
+        <v>0</v>
+      </c>
+      <c r="U10" t="n">
+        <v>0</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="n">
+        <v>6.056421089299432</v>
+      </c>
+      <c r="X10" t="n">
         <v>6.876045741711437</v>
-      </c>
-      <c r="L10" t="n">
-        <v>0</v>
-      </c>
-      <c r="M10" t="n">
-        <v>0</v>
-      </c>
-      <c r="N10" t="n">
-        <v>0</v>
-      </c>
-      <c r="O10" t="n">
-        <v>0</v>
-      </c>
-      <c r="P10" t="n">
-        <v>2.721440735106512</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>0</v>
-      </c>
-      <c r="R10" t="n">
-        <v>0</v>
-      </c>
-      <c r="S10" t="n">
-        <v>0</v>
-      </c>
-      <c r="T10" t="n">
-        <v>0</v>
-      </c>
-      <c r="U10" t="n">
-        <v>0</v>
-      </c>
-      <c r="V10" t="n">
-        <v>0</v>
-      </c>
-      <c r="W10" t="n">
-        <v>0</v>
-      </c>
-      <c r="X10" t="n">
-        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1373,16 +1373,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D11" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E11" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F11" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G11" t="n">
-        <v>363.9465890348608</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>247.6326277687279</v>
@@ -1418,22 +1418,22 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V11" t="n">
         <v>280.7771218515423</v>
       </c>
       <c r="W11" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X11" t="n">
-        <v>129.5222764216493</v>
+        <v>70.29337142558522</v>
       </c>
       <c r="Y11" t="n">
         <v>339.262802037461</v>
@@ -1528,25 +1528,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C13" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D13" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E13" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F13" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G13" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H13" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I13" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S13" t="n">
         <v>142.7938887128493</v>
@@ -1610,16 +1610,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D14" t="n">
-        <v>307.7079050020903</v>
+        <v>51.19963245605712</v>
       </c>
       <c r="E14" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F14" t="n">
-        <v>359.9009091231188</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>49.80323946453388</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H14" t="n">
         <v>247.6326277687279</v>
@@ -1667,10 +1667,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X14" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y14" t="n">
         <v>339.262802037461</v>
@@ -1765,25 +1765,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C16" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D16" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E16" t="n">
-        <v>99.45882602797658</v>
+        <v>99.4588260279766</v>
       </c>
       <c r="F16" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433867</v>
       </c>
       <c r="G16" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H16" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572821</v>
       </c>
       <c r="I16" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S16" t="n">
         <v>142.7938887128493</v>
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>322.9395291780638</v>
+        <v>322.9395291780635</v>
       </c>
       <c r="C17" t="n">
-        <v>305.4785792855908</v>
+        <v>305.4785792855905</v>
       </c>
       <c r="D17" t="n">
-        <v>294.8887291352662</v>
+        <v>294.8887291352659</v>
       </c>
       <c r="E17" t="n">
-        <v>322.136057586845</v>
+        <v>322.1360575868447</v>
       </c>
       <c r="F17" t="n">
-        <v>347.0817332562947</v>
+        <v>347.0817332562943</v>
       </c>
       <c r="G17" t="n">
-        <v>301.8385443684238</v>
+        <v>301.8385443684245</v>
       </c>
       <c r="H17" t="n">
-        <v>234.8134519019037</v>
+        <v>234.8134519019033</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>49.39344930275909</v>
+        <v>49.39344930275873</v>
       </c>
       <c r="T17" t="n">
-        <v>144.1236576542034</v>
+        <v>144.123657654203</v>
       </c>
       <c r="U17" t="n">
-        <v>191.2008594734852</v>
+        <v>191.2008594734849</v>
       </c>
       <c r="V17" t="n">
-        <v>267.9579459847182</v>
+        <v>267.9579459847178</v>
       </c>
       <c r="W17" t="n">
-        <v>289.4466562319963</v>
+        <v>289.4466562319959</v>
       </c>
       <c r="X17" t="n">
-        <v>309.9367881930523</v>
+        <v>309.9367881930519</v>
       </c>
       <c r="Y17" t="n">
-        <v>326.4436261706368</v>
+        <v>326.4436261706365</v>
       </c>
     </row>
     <row r="18">
@@ -1941,7 +1941,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247675</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>120.0376676965205</v>
+        <v>120.0376676965202</v>
       </c>
       <c r="C19" t="n">
-        <v>107.4525086132111</v>
+        <v>107.4525086132107</v>
       </c>
       <c r="D19" t="n">
-        <v>88.8211605327956</v>
+        <v>88.82116053279523</v>
       </c>
       <c r="E19" t="n">
-        <v>86.63965016115242</v>
+        <v>86.63965016115205</v>
       </c>
       <c r="F19" t="n">
-        <v>85.62673553751449</v>
+        <v>85.62673553751412</v>
       </c>
       <c r="G19" t="n">
-        <v>106.2314957736115</v>
+        <v>106.2314957736111</v>
       </c>
       <c r="H19" t="n">
-        <v>84.96070242890403</v>
+        <v>84.96070242890366</v>
       </c>
       <c r="I19" t="n">
-        <v>36.55810792442136</v>
+        <v>36.55810792442099</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>29.13784018463059</v>
+        <v>29.13784018463022</v>
       </c>
       <c r="S19" t="n">
-        <v>129.9747128460251</v>
+        <v>129.9747128460248</v>
       </c>
       <c r="T19" t="n">
-        <v>159.7546367907524</v>
+        <v>159.7546367907521</v>
       </c>
       <c r="U19" t="n">
-        <v>226.4175257201961</v>
+        <v>226.4175257201957</v>
       </c>
       <c r="V19" t="n">
-        <v>192.3433308384112</v>
+        <v>192.3433308384109</v>
       </c>
       <c r="W19" t="n">
-        <v>226.7286858511742</v>
+        <v>226.7286858511739</v>
       </c>
       <c r="X19" t="n">
-        <v>165.9153429036204</v>
+        <v>165.91534290362</v>
       </c>
       <c r="Y19" t="n">
-        <v>158.790340866678</v>
+        <v>158.7903408666777</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>322.9395291780638</v>
+        <v>322.9395291780635</v>
       </c>
       <c r="C20" t="n">
-        <v>305.4785792855908</v>
+        <v>305.4785792855905</v>
       </c>
       <c r="D20" t="n">
-        <v>294.8887291352662</v>
+        <v>294.8887291352659</v>
       </c>
       <c r="E20" t="n">
-        <v>322.136057586845</v>
+        <v>322.1360575868447</v>
       </c>
       <c r="F20" t="n">
-        <v>347.0817332562947</v>
+        <v>347.0817332562943</v>
       </c>
       <c r="G20" t="n">
-        <v>351.1274131680367</v>
+        <v>351.1274131680364</v>
       </c>
       <c r="H20" t="n">
-        <v>234.8134519019037</v>
+        <v>185.5245831022926</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0.1045805031454938</v>
+        <v>49.39344930275873</v>
       </c>
       <c r="T20" t="n">
-        <v>144.1236576542034</v>
+        <v>144.123657654203</v>
       </c>
       <c r="U20" t="n">
-        <v>191.2008594734852</v>
+        <v>191.2008594734849</v>
       </c>
       <c r="V20" t="n">
-        <v>267.9579459847182</v>
+        <v>267.9579459847178</v>
       </c>
       <c r="W20" t="n">
-        <v>289.4466562319963</v>
+        <v>289.4466562319959</v>
       </c>
       <c r="X20" t="n">
-        <v>309.9367881930523</v>
+        <v>309.9367881930519</v>
       </c>
       <c r="Y20" t="n">
-        <v>326.4436261706368</v>
+        <v>326.4436261706365</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>120.0376676965205</v>
+        <v>120.0376676965202</v>
       </c>
       <c r="C22" t="n">
-        <v>107.4525086132111</v>
+        <v>107.4525086132107</v>
       </c>
       <c r="D22" t="n">
-        <v>88.8211605327956</v>
+        <v>88.82116053279523</v>
       </c>
       <c r="E22" t="n">
-        <v>86.63965016115242</v>
+        <v>86.63965016115205</v>
       </c>
       <c r="F22" t="n">
-        <v>85.62673553751449</v>
+        <v>85.62673553751412</v>
       </c>
       <c r="G22" t="n">
-        <v>106.2314957736115</v>
+        <v>106.2314957736111</v>
       </c>
       <c r="H22" t="n">
-        <v>84.96070242890403</v>
+        <v>84.96070242890366</v>
       </c>
       <c r="I22" t="n">
-        <v>36.55810792442136</v>
+        <v>36.55810792442099</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>29.13784018463059</v>
+        <v>29.13784018463022</v>
       </c>
       <c r="S22" t="n">
-        <v>129.9747128460251</v>
+        <v>129.9747128460248</v>
       </c>
       <c r="T22" t="n">
-        <v>159.7546367907524</v>
+        <v>159.7546367907521</v>
       </c>
       <c r="U22" t="n">
-        <v>226.4175257201961</v>
+        <v>226.4175257201957</v>
       </c>
       <c r="V22" t="n">
-        <v>192.3433308384112</v>
+        <v>192.3433308384109</v>
       </c>
       <c r="W22" t="n">
-        <v>226.7286858511742</v>
+        <v>226.7286858511739</v>
       </c>
       <c r="X22" t="n">
-        <v>165.9153429036204</v>
+        <v>165.91534290362</v>
       </c>
       <c r="Y22" t="n">
-        <v>158.790340866678</v>
+        <v>158.7903408666777</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>322.9395291780638</v>
+        <v>322.9395291780635</v>
       </c>
       <c r="C23" t="n">
-        <v>305.4785792855908</v>
+        <v>305.4785792855905</v>
       </c>
       <c r="D23" t="n">
-        <v>294.8887291352662</v>
+        <v>294.8887291352659</v>
       </c>
       <c r="E23" t="n">
-        <v>322.136057586845</v>
+        <v>322.1360575868447</v>
       </c>
       <c r="F23" t="n">
-        <v>347.0817332562947</v>
+        <v>347.0817332562943</v>
       </c>
       <c r="G23" t="n">
-        <v>351.1274131680367</v>
+        <v>351.1274131680364</v>
       </c>
       <c r="H23" t="n">
-        <v>234.8134519019037</v>
+        <v>234.8134519019033</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>49.39344930275909</v>
+        <v>49.39344930275873</v>
       </c>
       <c r="T23" t="n">
-        <v>144.1236576542034</v>
+        <v>144.123657654203</v>
       </c>
       <c r="U23" t="n">
-        <v>191.2008594734852</v>
+        <v>191.2008594734849</v>
       </c>
       <c r="V23" t="n">
-        <v>267.9579459847182</v>
+        <v>267.9579459847178</v>
       </c>
       <c r="W23" t="n">
-        <v>289.4466562319963</v>
+        <v>289.4466562319959</v>
       </c>
       <c r="X23" t="n">
-        <v>309.9367881930523</v>
+        <v>309.9367881930519</v>
       </c>
       <c r="Y23" t="n">
-        <v>326.4436261706368</v>
+        <v>326.4436261706365</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>120.0376676965205</v>
+        <v>120.0376676965202</v>
       </c>
       <c r="C25" t="n">
-        <v>107.4525086132111</v>
+        <v>107.4525086132107</v>
       </c>
       <c r="D25" t="n">
-        <v>88.8211605327956</v>
+        <v>88.82116053279523</v>
       </c>
       <c r="E25" t="n">
-        <v>86.63965016115242</v>
+        <v>86.63965016115205</v>
       </c>
       <c r="F25" t="n">
-        <v>85.62673553751449</v>
+        <v>85.62673553751412</v>
       </c>
       <c r="G25" t="n">
-        <v>106.2314957736115</v>
+        <v>106.2314957736111</v>
       </c>
       <c r="H25" t="n">
-        <v>84.96070242890403</v>
+        <v>84.96070242890366</v>
       </c>
       <c r="I25" t="n">
-        <v>36.55810792442136</v>
+        <v>36.55810792442099</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>29.13784018463059</v>
+        <v>29.13784018463022</v>
       </c>
       <c r="S25" t="n">
-        <v>129.9747128460251</v>
+        <v>129.9747128460248</v>
       </c>
       <c r="T25" t="n">
-        <v>159.7546367907524</v>
+        <v>159.7546367907521</v>
       </c>
       <c r="U25" t="n">
-        <v>226.4175257201961</v>
+        <v>226.4175257201957</v>
       </c>
       <c r="V25" t="n">
-        <v>192.3433308384112</v>
+        <v>192.3433308384109</v>
       </c>
       <c r="W25" t="n">
-        <v>226.7286858511742</v>
+        <v>226.7286858511739</v>
       </c>
       <c r="X25" t="n">
-        <v>165.9153429036204</v>
+        <v>165.91534290362</v>
       </c>
       <c r="Y25" t="n">
-        <v>158.790340866678</v>
+        <v>158.7903408666777</v>
       </c>
     </row>
     <row r="26">
@@ -2552,28 +2552,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>346.8945000967151</v>
+        <v>346.8945000967148</v>
       </c>
       <c r="C26" t="n">
-        <v>329.4335502042421</v>
+        <v>329.4335502042417</v>
       </c>
       <c r="D26" t="n">
-        <v>318.8437000539175</v>
+        <v>318.8437000539171</v>
       </c>
       <c r="E26" t="n">
-        <v>346.0910285054964</v>
+        <v>346.091028505496</v>
       </c>
       <c r="F26" t="n">
-        <v>371.036704174946</v>
+        <v>371.0367041749456</v>
       </c>
       <c r="G26" t="n">
-        <v>375.082384086688</v>
+        <v>375.0823840866876</v>
       </c>
       <c r="H26" t="n">
-        <v>258.768422820555</v>
+        <v>258.7684228205546</v>
       </c>
       <c r="I26" t="n">
-        <v>5.737588206160574</v>
+        <v>5.737588206160147</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,25 +2603,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>73.34842022141045</v>
+        <v>73.34842022141004</v>
       </c>
       <c r="T26" t="n">
-        <v>168.0786285728548</v>
+        <v>168.0786285728544</v>
       </c>
       <c r="U26" t="n">
-        <v>215.1558303921366</v>
+        <v>215.1558303921362</v>
       </c>
       <c r="V26" t="n">
-        <v>291.9129169033695</v>
+        <v>291.9129169033691</v>
       </c>
       <c r="W26" t="n">
-        <v>313.4016271506476</v>
+        <v>313.4016271506472</v>
       </c>
       <c r="X26" t="n">
-        <v>333.8917591117036</v>
+        <v>333.8917591117032</v>
       </c>
       <c r="Y26" t="n">
-        <v>350.3985970892882</v>
+        <v>350.3985970892878</v>
       </c>
     </row>
     <row r="27">
@@ -2649,10 +2649,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H27" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I27" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -2679,7 +2679,7 @@
         <v>0</v>
       </c>
       <c r="R27" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S27" t="n">
         <v>128.1435076414547</v>
@@ -2710,28 +2710,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>143.9926386151719</v>
+        <v>143.9926386151715</v>
       </c>
       <c r="C28" t="n">
-        <v>131.4074795318624</v>
+        <v>131.407479531862</v>
       </c>
       <c r="D28" t="n">
-        <v>112.776131451447</v>
+        <v>86.39200881967253</v>
       </c>
       <c r="E28" t="n">
-        <v>110.5946210798038</v>
+        <v>110.5946210798034</v>
       </c>
       <c r="F28" t="n">
-        <v>0</v>
+        <v>109.5817064561654</v>
       </c>
       <c r="G28" t="n">
-        <v>130.1864666922628</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>13.52419597519198</v>
+        <v>60.5130788430723</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,28 +2758,28 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>53.09281110328195</v>
+        <v>53.09281110328153</v>
       </c>
       <c r="S28" t="n">
-        <v>153.9296837646765</v>
+        <v>153.9296837646761</v>
       </c>
       <c r="T28" t="n">
-        <v>183.7096077094038</v>
+        <v>183.7096077094034</v>
       </c>
       <c r="U28" t="n">
-        <v>250.3724966388475</v>
+        <v>250.3724966388471</v>
       </c>
       <c r="V28" t="n">
-        <v>216.2983017570626</v>
+        <v>216.2983017570622</v>
       </c>
       <c r="W28" t="n">
-        <v>250.6836567698256</v>
+        <v>250.6836567698252</v>
       </c>
       <c r="X28" t="n">
-        <v>189.8703138222718</v>
+        <v>189.8703138222714</v>
       </c>
       <c r="Y28" t="n">
-        <v>182.7453117853294</v>
+        <v>182.745311785329</v>
       </c>
     </row>
     <row r="29">
@@ -2789,28 +2789,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>346.8945000967151</v>
+        <v>346.8945000967147</v>
       </c>
       <c r="C29" t="n">
-        <v>329.4335502042421</v>
+        <v>329.4335502042417</v>
       </c>
       <c r="D29" t="n">
-        <v>318.8437000539175</v>
+        <v>318.8437000539171</v>
       </c>
       <c r="E29" t="n">
-        <v>346.0910285054964</v>
+        <v>346.0910285054959</v>
       </c>
       <c r="F29" t="n">
-        <v>371.036704174946</v>
+        <v>371.0367041749456</v>
       </c>
       <c r="G29" t="n">
-        <v>375.082384086688</v>
+        <v>375.0823840866876</v>
       </c>
       <c r="H29" t="n">
-        <v>258.768422820555</v>
+        <v>258.7684228205546</v>
       </c>
       <c r="I29" t="n">
-        <v>5.737588206160574</v>
+        <v>5.737588206160112</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2840,25 +2840,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>73.34842022141045</v>
+        <v>73.34842022141</v>
       </c>
       <c r="T29" t="n">
-        <v>168.0786285728548</v>
+        <v>168.0786285728543</v>
       </c>
       <c r="U29" t="n">
-        <v>215.1558303921366</v>
+        <v>215.1558303921361</v>
       </c>
       <c r="V29" t="n">
-        <v>291.9129169033695</v>
+        <v>291.912916903369</v>
       </c>
       <c r="W29" t="n">
-        <v>313.4016271506476</v>
+        <v>313.4016271506471</v>
       </c>
       <c r="X29" t="n">
-        <v>333.8917591117036</v>
+        <v>333.8917591117032</v>
       </c>
       <c r="Y29" t="n">
-        <v>350.3985970892882</v>
+        <v>350.3985970892877</v>
       </c>
     </row>
     <row r="30">
@@ -2889,7 +2889,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I30" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247659</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -2947,25 +2947,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>143.9926386151719</v>
+        <v>143.9926386151714</v>
       </c>
       <c r="C31" t="n">
-        <v>131.4074795318624</v>
+        <v>131.407479531862</v>
       </c>
       <c r="D31" t="n">
-        <v>112.776131451447</v>
+        <v>112.7761314514465</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>15.2031437074505</v>
       </c>
       <c r="F31" t="n">
-        <v>15.20314370744116</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>130.1864666922628</v>
+        <v>130.1864666922624</v>
       </c>
       <c r="H31" t="n">
-        <v>108.9156733475554</v>
+        <v>108.9156733475549</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -2995,28 +2995,28 @@
         <v>0</v>
       </c>
       <c r="R31" t="n">
-        <v>53.09281110328195</v>
+        <v>53.09281110328146</v>
       </c>
       <c r="S31" t="n">
-        <v>153.9296837646765</v>
+        <v>153.929683764676</v>
       </c>
       <c r="T31" t="n">
-        <v>183.7096077094038</v>
+        <v>183.7096077094033</v>
       </c>
       <c r="U31" t="n">
-        <v>250.3724966388475</v>
+        <v>250.372496638847</v>
       </c>
       <c r="V31" t="n">
-        <v>216.2983017570626</v>
+        <v>216.2983017570621</v>
       </c>
       <c r="W31" t="n">
-        <v>250.6836567698256</v>
+        <v>250.6836567698251</v>
       </c>
       <c r="X31" t="n">
-        <v>189.8703138222718</v>
+        <v>189.8703138222713</v>
       </c>
       <c r="Y31" t="n">
-        <v>182.7453117853294</v>
+        <v>182.7453117853289</v>
       </c>
     </row>
     <row r="32">
@@ -3026,28 +3026,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>345.1155295424196</v>
+        <v>345.1155295424192</v>
       </c>
       <c r="C32" t="n">
-        <v>327.6545796499465</v>
+        <v>327.6545796499461</v>
       </c>
       <c r="D32" t="n">
-        <v>317.0647294996219</v>
+        <v>317.0647294996215</v>
       </c>
       <c r="E32" t="n">
-        <v>344.3120579512008</v>
+        <v>344.3120579512004</v>
       </c>
       <c r="F32" t="n">
-        <v>369.2577336206504</v>
+        <v>369.25773362065</v>
       </c>
       <c r="G32" t="n">
-        <v>373.3034135323924</v>
+        <v>373.303413532392</v>
       </c>
       <c r="H32" t="n">
-        <v>256.9894522662594</v>
+        <v>256.989452266259</v>
       </c>
       <c r="I32" t="n">
-        <v>3.958617651864962</v>
+        <v>3.958617651864529</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3077,25 +3077,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>71.56944966711482</v>
+        <v>71.5694496671144</v>
       </c>
       <c r="T32" t="n">
-        <v>166.2996580185591</v>
+        <v>166.2996580185587</v>
       </c>
       <c r="U32" t="n">
-        <v>213.376859837841</v>
+        <v>213.3768598378405</v>
       </c>
       <c r="V32" t="n">
-        <v>290.1339463490739</v>
+        <v>290.1339463490734</v>
       </c>
       <c r="W32" t="n">
-        <v>311.622656596352</v>
+        <v>311.6226565963516</v>
       </c>
       <c r="X32" t="n">
-        <v>332.112788557408</v>
+        <v>332.1127885574076</v>
       </c>
       <c r="Y32" t="n">
-        <v>348.6196265349926</v>
+        <v>348.6196265349921</v>
       </c>
     </row>
     <row r="33">
@@ -3126,7 +3126,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247707</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>142.2136680608763</v>
+        <v>142.2136680608758</v>
       </c>
       <c r="C34" t="n">
-        <v>129.6285089775668</v>
+        <v>129.6285089775664</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>110.9971608971509</v>
       </c>
       <c r="E34" t="n">
-        <v>0</v>
+        <v>108.8156505255077</v>
       </c>
       <c r="F34" t="n">
-        <v>107.8027359018702</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>128.4074961379672</v>
+        <v>13.13605055909638</v>
       </c>
       <c r="H34" t="n">
-        <v>107.1367027932598</v>
+        <v>107.1367027932593</v>
       </c>
       <c r="I34" t="n">
-        <v>55.47273823068621</v>
+        <v>58.73410828877666</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,28 +3232,28 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>51.31384054898632</v>
+        <v>51.31384054898589</v>
       </c>
       <c r="S34" t="n">
-        <v>152.1507132103809</v>
+        <v>152.1507132103804</v>
       </c>
       <c r="T34" t="n">
-        <v>181.9306371551082</v>
+        <v>181.9306371551077</v>
       </c>
       <c r="U34" t="n">
-        <v>248.5935260845519</v>
+        <v>248.5935260845514</v>
       </c>
       <c r="V34" t="n">
-        <v>214.519331202767</v>
+        <v>214.5193312027666</v>
       </c>
       <c r="W34" t="n">
-        <v>248.90468621553</v>
+        <v>248.9046862155296</v>
       </c>
       <c r="X34" t="n">
-        <v>188.0913432679761</v>
+        <v>188.0913432679757</v>
       </c>
       <c r="Y34" t="n">
-        <v>180.9663412310338</v>
+        <v>180.9663412310333</v>
       </c>
     </row>
     <row r="35">
@@ -3266,7 +3266,7 @@
         <v>312.7385393449467</v>
       </c>
       <c r="C35" t="n">
-        <v>295.2775894524736</v>
+        <v>295.2775894524737</v>
       </c>
       <c r="D35" t="n">
         <v>284.6877393021491</v>
@@ -3314,16 +3314,16 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>39.19245946964197</v>
+        <v>39.19245946964202</v>
       </c>
       <c r="T35" t="n">
         <v>133.9226678210863</v>
       </c>
       <c r="U35" t="n">
-        <v>180.9998696403681</v>
+        <v>180.9998696403682</v>
       </c>
       <c r="V35" t="n">
-        <v>257.756956151601</v>
+        <v>257.7569561516011</v>
       </c>
       <c r="W35" t="n">
         <v>279.2456663988792</v>
@@ -3421,28 +3421,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>109.8366778634034</v>
+        <v>109.8366778634035</v>
       </c>
       <c r="C37" t="n">
-        <v>97.25151878009396</v>
+        <v>97.251518780094</v>
       </c>
       <c r="D37" t="n">
-        <v>78.62017069967848</v>
+        <v>78.62017069967852</v>
       </c>
       <c r="E37" t="n">
-        <v>76.4386603280353</v>
+        <v>76.43866032803534</v>
       </c>
       <c r="F37" t="n">
-        <v>75.42574570439737</v>
+        <v>75.42574570439741</v>
       </c>
       <c r="G37" t="n">
-        <v>96.03050594049435</v>
+        <v>96.03050594049439</v>
       </c>
       <c r="H37" t="n">
-        <v>74.75971259578691</v>
+        <v>74.75971259578695</v>
       </c>
       <c r="I37" t="n">
-        <v>26.35711809130424</v>
+        <v>26.35711809130428</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,22 +3469,22 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>18.93685035151347</v>
+        <v>18.93685035151351</v>
       </c>
       <c r="S37" t="n">
-        <v>119.773723012908</v>
+        <v>119.7737230129081</v>
       </c>
       <c r="T37" t="n">
-        <v>149.5536469576353</v>
+        <v>149.5536469576354</v>
       </c>
       <c r="U37" t="n">
         <v>216.216535887079</v>
       </c>
       <c r="V37" t="n">
-        <v>182.1423410052941</v>
+        <v>182.1423410052942</v>
       </c>
       <c r="W37" t="n">
-        <v>216.5276960180571</v>
+        <v>216.5276960180572</v>
       </c>
       <c r="X37" t="n">
         <v>155.7143530705033</v>
@@ -3715,7 +3715,7 @@
         <v>149.5536469576354</v>
       </c>
       <c r="U40" t="n">
-        <v>216.216535887079</v>
+        <v>216.2165358870791</v>
       </c>
       <c r="V40" t="n">
         <v>182.1423410052942</v>
@@ -3743,16 +3743,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D41" t="n">
-        <v>307.7079050020903</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G41" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H41" t="n">
         <v>247.6326277687279</v>
@@ -3788,22 +3788,22 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>0</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T41" t="n">
-        <v>15.50715559656683</v>
+        <v>156.9428335210276</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>204.0200353403094</v>
       </c>
       <c r="V41" t="n">
-        <v>280.7771218515423</v>
+        <v>213.5060897741268</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X41" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y41" t="n">
         <v>339.262802037461</v>
@@ -3898,25 +3898,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C43" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D43" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E43" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F43" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G43" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H43" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I43" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S43" t="n">
         <v>142.7938887128493</v>
@@ -3974,25 +3974,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>335.758705044888</v>
+        <v>335.7587050448881</v>
       </c>
       <c r="C44" t="n">
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>180.3615956913129</v>
       </c>
       <c r="E44" t="n">
-        <v>334.9552334536692</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>354.238089400485</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
-        <v>247.6326277687279</v>
+        <v>0</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -4025,25 +4025,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958325</v>
+        <v>62.21262516958335</v>
       </c>
       <c r="T44" t="n">
-        <v>0</v>
+        <v>156.9428335210277</v>
       </c>
       <c r="U44" t="n">
-        <v>0</v>
+        <v>204.0200353403095</v>
       </c>
       <c r="V44" t="n">
-        <v>280.7771218515423</v>
+        <v>280.7771218515424</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
-        <v>0</v>
+        <v>339.2628020374611</v>
       </c>
     </row>
     <row r="45">
@@ -4071,10 +4071,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H45" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I45" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,7 +4101,7 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S45" t="n">
         <v>128.1435076414547</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>132.8568435633447</v>
+        <v>132.8568435633448</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
-        <v>101.6403363996198</v>
+        <v>101.6403363996199</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797667</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433874</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572646</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124551</v>
+        <v>49.37728379124561</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,28 +4180,28 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145474</v>
+        <v>41.95701605145484</v>
       </c>
       <c r="S46" t="n">
-        <v>142.7938887128493</v>
+        <v>142.7938887128494</v>
       </c>
       <c r="T46" t="n">
-        <v>172.5738126575766</v>
+        <v>172.5738126575767</v>
       </c>
       <c r="U46" t="n">
-        <v>239.2367015870203</v>
+        <v>239.2367015870204</v>
       </c>
       <c r="V46" t="n">
-        <v>205.1625067052354</v>
+        <v>205.1625067052355</v>
       </c>
       <c r="W46" t="n">
-        <v>239.5478617179984</v>
+        <v>239.5478617179985</v>
       </c>
       <c r="X46" t="n">
-        <v>178.7345187704446</v>
+        <v>178.7345187704447</v>
       </c>
       <c r="Y46" t="n">
-        <v>171.6095167335022</v>
+        <v>171.6095167335023</v>
       </c>
     </row>
   </sheetData>
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="C8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="D8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="E8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="F8" t="n">
-        <v>13.6131814684388</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="G8" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H8" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I8" t="n">
-        <v>6.667680719235332</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J8" t="n">
         <v>0.5500836593369149</v>
@@ -4811,43 +4811,43 @@
         <v>7.357368943631237</v>
       </c>
       <c r="M8" t="n">
-        <v>7.357368943631237</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="N8" t="n">
-        <v>13.8896123982571</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="O8" t="n">
-        <v>20.69689768255142</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="P8" t="n">
         <v>27.50418296684575</v>
       </c>
       <c r="Q8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R8" t="n">
-        <v>20.55868221764227</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="S8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="T8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="U8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="V8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="W8" t="n">
-        <v>20.55868221764227</v>
+        <v>21.38658590694733</v>
       </c>
       <c r="X8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="Y8" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
     </row>
     <row r="9">
@@ -4857,46 +4857,46 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C9" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D9" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E9" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F9" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G9" t="n">
-        <v>8.2497170613261</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I9" t="n">
-        <v>1.304216312122629</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J9" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="K9" t="n">
-        <v>7.082327113962777</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="L9" t="n">
-        <v>13.8896123982571</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="M9" t="n">
-        <v>20.69689768255142</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="N9" t="n">
-        <v>20.69689768255142</v>
+        <v>14.16465422792556</v>
       </c>
       <c r="O9" t="n">
-        <v>20.69689768255142</v>
+        <v>20.97193951221988</v>
       </c>
       <c r="P9" t="n">
         <v>27.50418296684575</v>
@@ -4914,19 +4914,19 @@
         <v>20.55868221764227</v>
       </c>
       <c r="U9" t="n">
-        <v>20.55868221764227</v>
+        <v>14.44108515774386</v>
       </c>
       <c r="V9" t="n">
-        <v>20.55868221764227</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="W9" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="X9" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y9" t="n">
-        <v>15.19521781052957</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="10">
@@ -4936,37 +4936,37 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>24.75525293138463</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="C10" t="n">
-        <v>24.75525293138463</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="D10" t="n">
-        <v>24.75525293138463</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="E10" t="n">
-        <v>21.38658590694733</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="F10" t="n">
-        <v>14.44108515774386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="G10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="H10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="I10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="J10" t="n">
-        <v>7.495584408540386</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="K10" t="n">
         <v>0.5500836593369149</v>
       </c>
       <c r="L10" t="n">
-        <v>7.082327113962777</v>
+        <v>7.357368943631237</v>
       </c>
       <c r="M10" t="n">
         <v>13.8896123982571</v>
@@ -4978,34 +4978,34 @@
         <v>27.50418296684575</v>
       </c>
       <c r="P10" t="n">
-        <v>24.75525293138463</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="Q10" t="n">
-        <v>24.75525293138463</v>
+        <v>27.50418296684575</v>
       </c>
       <c r="R10" t="n">
-        <v>24.75525293138463</v>
+        <v>20.55868221764227</v>
       </c>
       <c r="S10" t="n">
-        <v>24.75525293138463</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="T10" t="n">
-        <v>24.75525293138463</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="U10" t="n">
-        <v>24.75525293138463</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="V10" t="n">
-        <v>24.75525293138463</v>
+        <v>13.6131814684388</v>
       </c>
       <c r="W10" t="n">
-        <v>24.75525293138463</v>
+        <v>7.495584408540386</v>
       </c>
       <c r="X10" t="n">
-        <v>24.75525293138463</v>
+        <v>0.5500836593369149</v>
       </c>
       <c r="Y10" t="n">
-        <v>24.75525293138463</v>
+        <v>0.5500836593369149</v>
       </c>
     </row>
     <row r="11">
@@ -5015,76 +5015,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2020.400694994815</v>
+        <v>1652.777877787885</v>
       </c>
       <c r="C11" t="n">
-        <v>1698.887811002477</v>
+        <v>1331.264993795546</v>
       </c>
       <c r="D11" t="n">
-        <v>1388.0717453438</v>
+        <v>1020.448928136869</v>
       </c>
       <c r="E11" t="n">
-        <v>1049.733125693629</v>
+        <v>682.1103084866982</v>
       </c>
       <c r="F11" t="n">
-        <v>686.1968538520944</v>
+        <v>318.574036645164</v>
       </c>
       <c r="G11" t="n">
-        <v>318.5740366451641</v>
+        <v>318.574036645164</v>
       </c>
       <c r="H11" t="n">
-        <v>68.44006920200461</v>
+        <v>68.44006920200451</v>
       </c>
       <c r="I11" t="n">
-        <v>68.44006920200461</v>
+        <v>68.44006920200451</v>
       </c>
       <c r="J11" t="n">
-        <v>286.7296302080167</v>
+        <v>351.7888858822643</v>
       </c>
       <c r="K11" t="n">
-        <v>620.549003897863</v>
+        <v>685.6082595721107</v>
       </c>
       <c r="L11" t="n">
-        <v>1071.583217146272</v>
+        <v>1136.642472820519</v>
       </c>
       <c r="M11" t="n">
-        <v>1605.115121818196</v>
+        <v>1670.174377492444</v>
       </c>
       <c r="N11" t="n">
-        <v>2151.893938876978</v>
+        <v>2216.953194551226</v>
       </c>
       <c r="O11" t="n">
-        <v>2654.866409756315</v>
+        <v>2719.925665430563</v>
       </c>
       <c r="P11" t="n">
-        <v>3049.640776113493</v>
+        <v>3114.70003178774</v>
       </c>
       <c r="Q11" t="n">
-        <v>3297.927137869175</v>
+        <v>3362.986393543423</v>
       </c>
       <c r="R11" t="n">
-        <v>3422.00346010023</v>
+        <v>3422.003460100225</v>
       </c>
       <c r="S11" t="n">
-        <v>3422.00346010023</v>
+        <v>3359.162424575394</v>
       </c>
       <c r="T11" t="n">
-        <v>3422.00346010023</v>
+        <v>3200.634309907689</v>
       </c>
       <c r="U11" t="n">
-        <v>3422.00346010023</v>
+        <v>2994.553466129599</v>
       </c>
       <c r="V11" t="n">
-        <v>3138.390205704733</v>
+        <v>2710.940211734101</v>
       </c>
       <c r="W11" t="n">
-        <v>2833.071183382692</v>
+        <v>2405.621189412061</v>
       </c>
       <c r="X11" t="n">
-        <v>2702.240601138602</v>
+        <v>2334.617783931672</v>
       </c>
       <c r="Y11" t="n">
-        <v>2359.550902110864</v>
+        <v>1991.928084903933</v>
       </c>
     </row>
     <row r="12">
@@ -5103,28 +5103,28 @@
         <v>620.0843683085516</v>
       </c>
       <c r="E12" t="n">
-        <v>460.8469133030961</v>
+        <v>460.846913303096</v>
       </c>
       <c r="F12" t="n">
-        <v>314.3123553299811</v>
+        <v>314.312355329981</v>
       </c>
       <c r="G12" t="n">
-        <v>177.9492551625992</v>
+        <v>177.9492551625991</v>
       </c>
       <c r="H12" t="n">
-        <v>87.44736080046667</v>
+        <v>87.44736080046658</v>
       </c>
       <c r="I12" t="n">
-        <v>68.44006920200461</v>
+        <v>68.44006920200451</v>
       </c>
       <c r="J12" t="n">
-        <v>162.1173386926219</v>
+        <v>162.1173386926218</v>
       </c>
       <c r="K12" t="n">
-        <v>400.381537672969</v>
+        <v>400.3815376729689</v>
       </c>
       <c r="L12" t="n">
-        <v>767.0796979856343</v>
+        <v>767.0796979856341</v>
       </c>
       <c r="M12" t="n">
         <v>1214.356023207951</v>
@@ -5173,37 +5173,37 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>761.3942025751154</v>
+        <v>761.3942025751153</v>
       </c>
       <c r="C13" t="n">
-        <v>639.9076525952818</v>
+        <v>639.9076525952817</v>
       </c>
       <c r="D13" t="n">
-        <v>537.2406461310194</v>
+        <v>537.2406461310193</v>
       </c>
       <c r="E13" t="n">
-        <v>436.7771854966996</v>
+        <v>436.7771854966994</v>
       </c>
       <c r="F13" t="n">
-        <v>337.3368709468626</v>
+        <v>337.3368709468623</v>
       </c>
       <c r="G13" t="n">
-        <v>217.0836672696549</v>
+        <v>217.0836672696546</v>
       </c>
       <c r="H13" t="n">
-        <v>118.3161134355859</v>
+        <v>118.3161134355857</v>
       </c>
       <c r="I13" t="n">
-        <v>68.44006920200461</v>
+        <v>68.44006920200451</v>
       </c>
       <c r="J13" t="n">
-        <v>160.0680869013468</v>
+        <v>160.0680869013465</v>
       </c>
       <c r="K13" t="n">
-        <v>410.5606551026298</v>
+        <v>410.5606551026294</v>
       </c>
       <c r="L13" t="n">
-        <v>773.6258388035326</v>
+        <v>773.6258388035321</v>
       </c>
       <c r="M13" t="n">
         <v>1164.288269655488</v>
@@ -5230,19 +5230,19 @@
         <v>1940.331524875667</v>
       </c>
       <c r="U13" t="n">
-        <v>1698.678290949383</v>
+        <v>1698.678290949384</v>
       </c>
       <c r="V13" t="n">
         <v>1491.44343569157</v>
       </c>
       <c r="W13" t="n">
-        <v>1249.475898602683</v>
+        <v>1249.475898602682</v>
       </c>
       <c r="X13" t="n">
-        <v>1068.935980652739</v>
+        <v>1068.935980652738</v>
       </c>
       <c r="Y13" t="n">
-        <v>895.5930344572818</v>
+        <v>895.5930344572816</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1703.084180277313</v>
+        <v>1397.765157955267</v>
       </c>
       <c r="C14" t="n">
-        <v>1381.571296284974</v>
+        <v>1076.252273962929</v>
       </c>
       <c r="D14" t="n">
-        <v>1070.755230626297</v>
+        <v>1024.535473502265</v>
       </c>
       <c r="E14" t="n">
-        <v>732.4166109761264</v>
+        <v>686.1968538520943</v>
       </c>
       <c r="F14" t="n">
-        <v>368.8803391345923</v>
+        <v>686.1968538520943</v>
       </c>
       <c r="G14" t="n">
-        <v>318.5740366451641</v>
+        <v>318.574036645164</v>
       </c>
       <c r="H14" t="n">
-        <v>68.44006920200461</v>
+        <v>68.44006920200451</v>
       </c>
       <c r="I14" t="n">
-        <v>68.44006920200461</v>
+        <v>68.44006920200451</v>
       </c>
       <c r="J14" t="n">
-        <v>351.7888858822693</v>
+        <v>257.3192001610299</v>
       </c>
       <c r="K14" t="n">
-        <v>685.6082595721157</v>
+        <v>591.1385738508764</v>
       </c>
       <c r="L14" t="n">
-        <v>1136.642472820524</v>
+        <v>1042.172787099285</v>
       </c>
       <c r="M14" t="n">
-        <v>1670.174377492449</v>
+        <v>1575.704691771209</v>
       </c>
       <c r="N14" t="n">
-        <v>2216.953194551231</v>
+        <v>2216.953194551226</v>
       </c>
       <c r="O14" t="n">
-        <v>2719.925665430568</v>
+        <v>2719.925665430563</v>
       </c>
       <c r="P14" t="n">
-        <v>3114.700031787746</v>
+        <v>3114.70003178774</v>
       </c>
       <c r="Q14" t="n">
-        <v>3362.986393543428</v>
+        <v>3362.986393543423</v>
       </c>
       <c r="R14" t="n">
-        <v>3422.00346010023</v>
+        <v>3422.003460100225</v>
       </c>
       <c r="S14" t="n">
-        <v>3359.162424575399</v>
+        <v>3359.162424575394</v>
       </c>
       <c r="T14" t="n">
-        <v>3200.634309907694</v>
+        <v>3200.634309907689</v>
       </c>
       <c r="U14" t="n">
-        <v>2994.553466129603</v>
+        <v>2994.553466129599</v>
       </c>
       <c r="V14" t="n">
-        <v>2710.940211734106</v>
+        <v>2710.940211734101</v>
       </c>
       <c r="W14" t="n">
-        <v>2710.940211734106</v>
+        <v>2405.621189412061</v>
       </c>
       <c r="X14" t="n">
-        <v>2384.9240864211</v>
+        <v>2079.605064099054</v>
       </c>
       <c r="Y14" t="n">
-        <v>2042.234387393361</v>
+        <v>1736.915365071316</v>
       </c>
     </row>
     <row r="15">
@@ -5340,37 +5340,37 @@
         <v>620.0843683085516</v>
       </c>
       <c r="E15" t="n">
-        <v>460.8469133030961</v>
+        <v>460.846913303096</v>
       </c>
       <c r="F15" t="n">
-        <v>314.3123553299811</v>
+        <v>314.312355329981</v>
       </c>
       <c r="G15" t="n">
-        <v>177.9492551625992</v>
+        <v>177.9492551625991</v>
       </c>
       <c r="H15" t="n">
-        <v>87.44736080046667</v>
+        <v>87.44736080046658</v>
       </c>
       <c r="I15" t="n">
-        <v>68.44006920200461</v>
+        <v>68.44006920200451</v>
       </c>
       <c r="J15" t="n">
-        <v>162.1173386926219</v>
+        <v>162.1173386926218</v>
       </c>
       <c r="K15" t="n">
-        <v>400.38153767297</v>
+        <v>400.3815376729689</v>
       </c>
       <c r="L15" t="n">
-        <v>767.0796979856352</v>
+        <v>767.0796979856341</v>
       </c>
       <c r="M15" t="n">
-        <v>1214.356023207951</v>
+        <v>1214.35602320795</v>
       </c>
       <c r="N15" t="n">
-        <v>1687.879066762406</v>
+        <v>1687.879066762404</v>
       </c>
       <c r="O15" t="n">
-        <v>2098.84034618046</v>
+        <v>2098.840346180459</v>
       </c>
       <c r="P15" t="n">
         <v>2409.339937656563</v>
@@ -5410,19 +5410,19 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>761.3942025751155</v>
+        <v>761.3942025751154</v>
       </c>
       <c r="C16" t="n">
-        <v>639.9076525952819</v>
+        <v>639.9076525952818</v>
       </c>
       <c r="D16" t="n">
-        <v>537.2406461310195</v>
+        <v>537.2406461310194</v>
       </c>
       <c r="E16" t="n">
-        <v>436.7771854966998</v>
+        <v>436.7771854966996</v>
       </c>
       <c r="F16" t="n">
-        <v>337.3368709468627</v>
+        <v>337.3368709468625</v>
       </c>
       <c r="G16" t="n">
         <v>217.0836672696548</v>
@@ -5431,37 +5431,37 @@
         <v>118.3161134355859</v>
       </c>
       <c r="I16" t="n">
-        <v>68.44006920200461</v>
+        <v>68.44006920200451</v>
       </c>
       <c r="J16" t="n">
-        <v>160.0680869013468</v>
+        <v>160.0680869013466</v>
       </c>
       <c r="K16" t="n">
-        <v>410.5606551026299</v>
+        <v>410.5606551026296</v>
       </c>
       <c r="L16" t="n">
-        <v>773.6258388035326</v>
+        <v>773.6258388035324</v>
       </c>
       <c r="M16" t="n">
         <v>1164.288269655488</v>
       </c>
       <c r="N16" t="n">
-        <v>1552.20203161376</v>
+        <v>1552.202031613759</v>
       </c>
       <c r="O16" t="n">
-        <v>1898.03701578658</v>
+        <v>1898.037015786579</v>
       </c>
       <c r="P16" t="n">
-        <v>2177.149901472646</v>
+        <v>2177.149901472645</v>
       </c>
       <c r="Q16" t="n">
-        <v>2301.265582877567</v>
+        <v>2301.265582877566</v>
       </c>
       <c r="R16" t="n">
         <v>2258.884758583168</v>
       </c>
       <c r="S16" t="n">
-        <v>2114.648507358068</v>
+        <v>2114.648507358067</v>
       </c>
       <c r="T16" t="n">
         <v>1940.331524875667</v>
@@ -5489,7 +5489,7 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1900.913157883017</v>
+        <v>1900.913157883016</v>
       </c>
       <c r="C17" t="n">
         <v>1592.34893638242</v>
@@ -5498,67 +5498,67 @@
         <v>1294.481533215484</v>
       </c>
       <c r="E17" t="n">
-        <v>969.0915760570549</v>
+        <v>969.0915760570555</v>
       </c>
       <c r="F17" t="n">
-        <v>618.5039667072622</v>
+        <v>618.5039667072631</v>
       </c>
       <c r="G17" t="n">
-        <v>313.6165481532987</v>
+        <v>313.6165481532983</v>
       </c>
       <c r="H17" t="n">
-        <v>76.43124320188083</v>
+        <v>76.43124320188078</v>
       </c>
       <c r="I17" t="n">
-        <v>76.43124320188083</v>
+        <v>76.43124320188078</v>
       </c>
       <c r="J17" t="n">
         <v>432.7160231812592</v>
       </c>
       <c r="K17" t="n">
-        <v>766.5353968711056</v>
+        <v>1085.166959565925</v>
       </c>
       <c r="L17" t="n">
-        <v>1217.569610119514</v>
+        <v>1536.201172814333</v>
       </c>
       <c r="M17" t="n">
-        <v>1751.101514791439</v>
+        <v>2069.733077486258</v>
       </c>
       <c r="N17" t="n">
-        <v>2297.880331850221</v>
+        <v>2616.511894545039</v>
       </c>
       <c r="O17" t="n">
-        <v>2800.852802729557</v>
+        <v>3119.484365424376</v>
       </c>
       <c r="P17" t="n">
-        <v>3239.007635353998</v>
+        <v>3514.258731781554</v>
       </c>
       <c r="Q17" t="n">
-        <v>3697.485837862987</v>
+        <v>3762.545093537236</v>
       </c>
       <c r="R17" t="n">
-        <v>3821.562160094042</v>
+        <v>3821.562160094039</v>
       </c>
       <c r="S17" t="n">
-        <v>3771.669787060952</v>
+        <v>3771.669787060949</v>
       </c>
       <c r="T17" t="n">
-        <v>3626.090334884989</v>
+        <v>3626.090334884987</v>
       </c>
       <c r="U17" t="n">
-        <v>3432.95815359864</v>
+        <v>3432.958153598638</v>
       </c>
       <c r="V17" t="n">
-        <v>3162.293561694884</v>
+        <v>3162.293561694883</v>
       </c>
       <c r="W17" t="n">
-        <v>2869.923201864585</v>
+        <v>2869.923201864583</v>
       </c>
       <c r="X17" t="n">
-        <v>2556.855739043321</v>
+        <v>2556.855739043319</v>
       </c>
       <c r="Y17" t="n">
-        <v>2227.114702507324</v>
+        <v>2227.114702507322</v>
       </c>
     </row>
     <row r="18">
@@ -5568,34 +5568,34 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>951.4629812508053</v>
+        <v>951.4629812508059</v>
       </c>
       <c r="C18" t="n">
-        <v>777.0099519696784</v>
+        <v>777.0099519696789</v>
       </c>
       <c r="D18" t="n">
-        <v>628.0755423084271</v>
+        <v>628.0755423084277</v>
       </c>
       <c r="E18" t="n">
-        <v>468.8380873029716</v>
+        <v>468.8380873029722</v>
       </c>
       <c r="F18" t="n">
-        <v>322.3035293298566</v>
+        <v>322.3035293298572</v>
       </c>
       <c r="G18" t="n">
-        <v>185.9404291624747</v>
+        <v>185.9404291624753</v>
       </c>
       <c r="H18" t="n">
-        <v>95.4385348003422</v>
+        <v>95.43853480034284</v>
       </c>
       <c r="I18" t="n">
-        <v>76.43124320188083</v>
+        <v>76.43124320188078</v>
       </c>
       <c r="J18" t="n">
-        <v>170.1085126924981</v>
+        <v>170.108512692498</v>
       </c>
       <c r="K18" t="n">
-        <v>408.3727116728452</v>
+        <v>408.3727116728451</v>
       </c>
       <c r="L18" t="n">
         <v>775.0708719855104</v>
@@ -5610,34 +5610,34 @@
         <v>2106.831520180335</v>
       </c>
       <c r="P18" t="n">
-        <v>2417.331111656438</v>
+        <v>2417.331111656439</v>
       </c>
       <c r="Q18" t="n">
         <v>2574.972669303038</v>
       </c>
       <c r="R18" t="n">
-        <v>2574.828315895553</v>
+        <v>2574.828315895554</v>
       </c>
       <c r="S18" t="n">
-        <v>2445.390429389033</v>
+        <v>2445.390429389034</v>
       </c>
       <c r="T18" t="n">
         <v>2252.747429066889</v>
       </c>
       <c r="U18" t="n">
-        <v>2024.679582201304</v>
+        <v>2024.679582201305</v>
       </c>
       <c r="V18" t="n">
         <v>1789.527473969562</v>
       </c>
       <c r="W18" t="n">
-        <v>1535.29011724136</v>
+        <v>1535.290117241361</v>
       </c>
       <c r="X18" t="n">
-        <v>1327.438617035827</v>
+        <v>1327.438617035828</v>
       </c>
       <c r="Y18" t="n">
-        <v>1119.678318270873</v>
+        <v>1119.678318270874</v>
       </c>
     </row>
     <row r="19">
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>678.7447391328004</v>
+        <v>678.7447391327979</v>
       </c>
       <c r="C19" t="n">
-        <v>570.2068516447084</v>
+        <v>570.2068516447063</v>
       </c>
       <c r="D19" t="n">
-        <v>480.4885076721877</v>
+        <v>480.4885076721858</v>
       </c>
       <c r="E19" t="n">
-        <v>392.9737095296095</v>
+        <v>392.973709529608</v>
       </c>
       <c r="F19" t="n">
-        <v>306.4820574715141</v>
+        <v>306.4820574715129</v>
       </c>
       <c r="G19" t="n">
-        <v>199.1775162860479</v>
+        <v>199.1775162860471</v>
       </c>
       <c r="H19" t="n">
-        <v>113.3586249437206</v>
+        <v>113.3586249437202</v>
       </c>
       <c r="I19" t="n">
-        <v>76.43124320188083</v>
+        <v>76.43124320188078</v>
       </c>
       <c r="J19" t="n">
-        <v>121.5538756488164</v>
+        <v>121.5538756488163</v>
       </c>
       <c r="K19" t="n">
-        <v>325.5410585976927</v>
+        <v>384.7374279582555</v>
       </c>
       <c r="L19" t="n">
-        <v>642.1008570461888</v>
+        <v>760.4935957673146</v>
       </c>
       <c r="M19" t="n">
-        <v>986.2579026457378</v>
+        <v>1104.650641366864</v>
       </c>
       <c r="N19" t="n">
-        <v>1386.862648712165</v>
+        <v>1446.059018072728</v>
       </c>
       <c r="O19" t="n">
-        <v>1686.192247632579</v>
+        <v>1791.860360423397</v>
       </c>
       <c r="P19" t="n">
-        <v>1977.9961174268</v>
+        <v>2024.467860857056</v>
       </c>
       <c r="Q19" t="n">
-        <v>2102.078157009577</v>
+        <v>2102.078157009571</v>
       </c>
       <c r="R19" t="n">
-        <v>2072.64599520692</v>
+        <v>2072.645995206914</v>
       </c>
       <c r="S19" t="n">
-        <v>1941.358406473561</v>
+        <v>1941.358406473556</v>
       </c>
       <c r="T19" t="n">
-        <v>1779.990086482902</v>
+        <v>1779.990086482897</v>
       </c>
       <c r="U19" t="n">
-        <v>1551.28551504836</v>
+        <v>1551.285515048356</v>
       </c>
       <c r="V19" t="n">
-        <v>1356.999322282288</v>
+        <v>1356.999322282285</v>
       </c>
       <c r="W19" t="n">
-        <v>1127.980447685143</v>
+        <v>1127.980447685139</v>
       </c>
       <c r="X19" t="n">
-        <v>960.3891922269404</v>
+        <v>960.3891922269371</v>
       </c>
       <c r="Y19" t="n">
-        <v>799.9949085232253</v>
+        <v>799.9949085232223</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1950.699894044242</v>
+        <v>1900.913157883016</v>
       </c>
       <c r="C20" t="n">
-        <v>1642.135672543645</v>
+        <v>1592.34893638242</v>
       </c>
       <c r="D20" t="n">
-        <v>1344.268269376709</v>
+        <v>1294.481533215485</v>
       </c>
       <c r="E20" t="n">
-        <v>1018.87831221828</v>
+        <v>969.0915760570558</v>
       </c>
       <c r="F20" t="n">
-        <v>668.2907028684876</v>
+        <v>618.5039667072635</v>
       </c>
       <c r="G20" t="n">
-        <v>313.6165481532987</v>
+        <v>263.8298119920753</v>
       </c>
       <c r="H20" t="n">
-        <v>76.43124320188083</v>
+        <v>76.43124320188078</v>
       </c>
       <c r="I20" t="n">
-        <v>76.43124320188083</v>
+        <v>76.43124320188078</v>
       </c>
       <c r="J20" t="n">
-        <v>432.7160231812592</v>
+        <v>265.3103741609062</v>
       </c>
       <c r="K20" t="n">
-        <v>766.5353968711056</v>
+        <v>599.1297478507526</v>
       </c>
       <c r="L20" t="n">
-        <v>1217.569610119514</v>
+        <v>1050.163961099161</v>
       </c>
       <c r="M20" t="n">
-        <v>1751.101514791439</v>
+        <v>1583.695865771085</v>
       </c>
       <c r="N20" t="n">
-        <v>2297.880331850221</v>
+        <v>2130.474682829868</v>
       </c>
       <c r="O20" t="n">
-        <v>2844.233268996821</v>
+        <v>3010.439333159322</v>
       </c>
       <c r="P20" t="n">
-        <v>3239.007635353998</v>
+        <v>3514.258731781554</v>
       </c>
       <c r="Q20" t="n">
-        <v>3697.485837862987</v>
+        <v>3762.545093537236</v>
       </c>
       <c r="R20" t="n">
-        <v>3821.562160094042</v>
+        <v>3821.562160094039</v>
       </c>
       <c r="S20" t="n">
-        <v>3821.456523222178</v>
+        <v>3771.669787060949</v>
       </c>
       <c r="T20" t="n">
-        <v>3675.877071046214</v>
+        <v>3626.090334884987</v>
       </c>
       <c r="U20" t="n">
-        <v>3482.744889759866</v>
+        <v>3432.958153598638</v>
       </c>
       <c r="V20" t="n">
-        <v>3212.08029785611</v>
+        <v>3162.293561694883</v>
       </c>
       <c r="W20" t="n">
-        <v>2919.709938025811</v>
+        <v>2869.923201864584</v>
       </c>
       <c r="X20" t="n">
-        <v>2606.642475204545</v>
+        <v>2556.855739043319</v>
       </c>
       <c r="Y20" t="n">
-        <v>2276.901438668549</v>
+        <v>2227.114702507323</v>
       </c>
     </row>
     <row r="21">
@@ -5805,43 +5805,43 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>951.4629812508061</v>
+        <v>951.4629812508059</v>
       </c>
       <c r="C21" t="n">
-        <v>777.0099519696792</v>
+        <v>777.0099519696789</v>
       </c>
       <c r="D21" t="n">
-        <v>628.0755423084279</v>
+        <v>628.0755423084277</v>
       </c>
       <c r="E21" t="n">
-        <v>468.8380873029723</v>
+        <v>468.8380873029722</v>
       </c>
       <c r="F21" t="n">
-        <v>322.3035293298573</v>
+        <v>322.3035293298572</v>
       </c>
       <c r="G21" t="n">
-        <v>185.9404291624754</v>
+        <v>185.9404291624753</v>
       </c>
       <c r="H21" t="n">
-        <v>95.43853480034289</v>
+        <v>95.43853480034284</v>
       </c>
       <c r="I21" t="n">
-        <v>76.43124320188083</v>
+        <v>76.43124320188078</v>
       </c>
       <c r="J21" t="n">
-        <v>170.1085126924989</v>
+        <v>170.108512692498</v>
       </c>
       <c r="K21" t="n">
-        <v>408.372711672846</v>
+        <v>408.3727116728451</v>
       </c>
       <c r="L21" t="n">
-        <v>775.0708719855113</v>
+        <v>775.0708719855104</v>
       </c>
       <c r="M21" t="n">
-        <v>1222.347197207827</v>
+        <v>1222.347197207826</v>
       </c>
       <c r="N21" t="n">
-        <v>1695.870240762282</v>
+        <v>1695.870240762281</v>
       </c>
       <c r="O21" t="n">
         <v>2106.831520180336</v>
@@ -5850,7 +5850,7 @@
         <v>2417.331111656439</v>
       </c>
       <c r="Q21" t="n">
-        <v>2574.972669303039</v>
+        <v>2574.972669303038</v>
       </c>
       <c r="R21" t="n">
         <v>2574.828315895554</v>
@@ -5859,7 +5859,7 @@
         <v>2445.390429389034</v>
       </c>
       <c r="T21" t="n">
-        <v>2252.74742906689</v>
+        <v>2252.747429066889</v>
       </c>
       <c r="U21" t="n">
         <v>2024.679582201305</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>678.7447391328004</v>
+        <v>678.7447391327979</v>
       </c>
       <c r="C22" t="n">
-        <v>570.2068516447084</v>
+        <v>570.2068516447063</v>
       </c>
       <c r="D22" t="n">
-        <v>480.4885076721877</v>
+        <v>480.4885076721858</v>
       </c>
       <c r="E22" t="n">
-        <v>392.9737095296095</v>
+        <v>392.973709529608</v>
       </c>
       <c r="F22" t="n">
-        <v>306.4820574715141</v>
+        <v>306.4820574715129</v>
       </c>
       <c r="G22" t="n">
-        <v>199.1775162860479</v>
+        <v>199.1775162860471</v>
       </c>
       <c r="H22" t="n">
-        <v>113.3586249437206</v>
+        <v>113.3586249437202</v>
       </c>
       <c r="I22" t="n">
-        <v>76.43124320188083</v>
+        <v>76.43124320188078</v>
       </c>
       <c r="J22" t="n">
-        <v>180.7502450093789</v>
+        <v>168.0256190790718</v>
       </c>
       <c r="K22" t="n">
-        <v>384.7374279582552</v>
+        <v>372.0128020279481</v>
       </c>
       <c r="L22" t="n">
-        <v>760.493595767314</v>
+        <v>688.5726004764442</v>
       </c>
       <c r="M22" t="n">
-        <v>1104.650641366863</v>
+        <v>1091.926015436556</v>
       </c>
       <c r="N22" t="n">
-        <v>1492.53076150299</v>
+        <v>1433.334392142421</v>
       </c>
       <c r="O22" t="n">
-        <v>1791.860360423403</v>
+        <v>1732.663991062834</v>
       </c>
       <c r="P22" t="n">
-        <v>2024.467860857062</v>
+        <v>2024.467860857056</v>
       </c>
       <c r="Q22" t="n">
-        <v>2102.078157009577</v>
+        <v>2102.078157009571</v>
       </c>
       <c r="R22" t="n">
-        <v>2072.64599520692</v>
+        <v>2072.645995206914</v>
       </c>
       <c r="S22" t="n">
-        <v>1941.358406473561</v>
+        <v>1941.358406473556</v>
       </c>
       <c r="T22" t="n">
-        <v>1779.990086482902</v>
+        <v>1779.990086482897</v>
       </c>
       <c r="U22" t="n">
-        <v>1551.28551504836</v>
+        <v>1551.285515048356</v>
       </c>
       <c r="V22" t="n">
-        <v>1356.999322282288</v>
+        <v>1356.999322282285</v>
       </c>
       <c r="W22" t="n">
-        <v>1127.980447685143</v>
+        <v>1127.980447685139</v>
       </c>
       <c r="X22" t="n">
-        <v>960.3891922269404</v>
+        <v>960.3891922269371</v>
       </c>
       <c r="Y22" t="n">
-        <v>799.9949085232253</v>
+        <v>799.9949085232223</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1951.715949884267</v>
+        <v>1951.715949884264</v>
       </c>
       <c r="C23" t="n">
-        <v>1643.15172838367</v>
+        <v>1643.151728383668</v>
       </c>
       <c r="D23" t="n">
-        <v>1345.284325216734</v>
+        <v>1345.284325216732</v>
       </c>
       <c r="E23" t="n">
-        <v>1019.894368058305</v>
+        <v>1019.894368058304</v>
       </c>
       <c r="F23" t="n">
-        <v>669.3067587085129</v>
+        <v>669.3067587085116</v>
       </c>
       <c r="G23" t="n">
-        <v>314.6326039933238</v>
+        <v>314.6326039933233</v>
       </c>
       <c r="H23" t="n">
-        <v>77.44729904190585</v>
+        <v>77.44729904190575</v>
       </c>
       <c r="I23" t="n">
-        <v>77.44729904190585</v>
+        <v>77.44729904190575</v>
       </c>
       <c r="J23" t="n">
-        <v>377.2719569056714</v>
+        <v>266.3264300009312</v>
       </c>
       <c r="K23" t="n">
-        <v>711.0913305955178</v>
+        <v>600.1458036907775</v>
       </c>
       <c r="L23" t="n">
-        <v>1162.125543843926</v>
+        <v>1051.180016939186</v>
       </c>
       <c r="M23" t="n">
-        <v>2120.535869487511</v>
+        <v>1584.71192161111</v>
       </c>
       <c r="N23" t="n">
-        <v>2667.314686546293</v>
+        <v>2290.32250709617</v>
       </c>
       <c r="O23" t="n">
-        <v>3170.28715742563</v>
+        <v>3170.287157425625</v>
       </c>
       <c r="P23" t="n">
-        <v>3565.061523782808</v>
+        <v>3565.061523782802</v>
       </c>
       <c r="Q23" t="n">
-        <v>3813.34788553849</v>
+        <v>3813.347885538485</v>
       </c>
       <c r="R23" t="n">
-        <v>3872.364952095293</v>
+        <v>3872.364952095287</v>
       </c>
       <c r="S23" t="n">
-        <v>3822.472579062203</v>
+        <v>3822.472579062197</v>
       </c>
       <c r="T23" t="n">
-        <v>3676.89312688624</v>
+        <v>3676.893126886235</v>
       </c>
       <c r="U23" t="n">
-        <v>3483.760945599891</v>
+        <v>3483.760945599886</v>
       </c>
       <c r="V23" t="n">
-        <v>3213.096353696135</v>
+        <v>3213.096353696131</v>
       </c>
       <c r="W23" t="n">
-        <v>2920.725993865835</v>
+        <v>2920.725993865832</v>
       </c>
       <c r="X23" t="n">
-        <v>2607.65853104457</v>
+        <v>2607.658531044567</v>
       </c>
       <c r="Y23" t="n">
-        <v>2277.917494508573</v>
+        <v>2277.917494508571</v>
       </c>
     </row>
     <row r="24">
@@ -6042,28 +6042,28 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>952.4790370908312</v>
+        <v>952.479037090831</v>
       </c>
       <c r="C24" t="n">
-        <v>778.0260078097042</v>
+        <v>778.026007809704</v>
       </c>
       <c r="D24" t="n">
-        <v>629.0915981484529</v>
+        <v>629.0915981484527</v>
       </c>
       <c r="E24" t="n">
-        <v>469.8541431429974</v>
+        <v>469.8541431429973</v>
       </c>
       <c r="F24" t="n">
-        <v>323.3195851698823</v>
+        <v>323.3195851698822</v>
       </c>
       <c r="G24" t="n">
-        <v>186.9564850025004</v>
+        <v>186.9564850025003</v>
       </c>
       <c r="H24" t="n">
-        <v>96.45459064036791</v>
+        <v>96.45459064036783</v>
       </c>
       <c r="I24" t="n">
-        <v>77.44729904190585</v>
+        <v>77.44729904190575</v>
       </c>
       <c r="J24" t="n">
         <v>171.1245685325238</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>679.7607949728255</v>
+        <v>679.7607949728229</v>
       </c>
       <c r="C25" t="n">
-        <v>571.2229074847335</v>
+        <v>571.2229074847312</v>
       </c>
       <c r="D25" t="n">
-        <v>481.5045635122127</v>
+        <v>481.5045635122108</v>
       </c>
       <c r="E25" t="n">
-        <v>393.9897653696345</v>
+        <v>393.9897653696329</v>
       </c>
       <c r="F25" t="n">
-        <v>307.498113311539</v>
+        <v>307.4981133115378</v>
       </c>
       <c r="G25" t="n">
-        <v>200.1935721260729</v>
+        <v>200.1935721260721</v>
       </c>
       <c r="H25" t="n">
-        <v>114.3746807837456</v>
+        <v>114.3746807837451</v>
       </c>
       <c r="I25" t="n">
-        <v>77.44729904190585</v>
+        <v>77.44729904190575</v>
       </c>
       <c r="J25" t="n">
-        <v>181.766300849404</v>
+        <v>122.5699314888413</v>
       </c>
       <c r="K25" t="n">
-        <v>385.7534837982803</v>
+        <v>326.5571144377176</v>
       </c>
       <c r="L25" t="n">
-        <v>702.3132822467765</v>
+        <v>643.1169128862136</v>
       </c>
       <c r="M25" t="n">
-        <v>1046.470327846325</v>
+        <v>1046.470327846326</v>
       </c>
       <c r="N25" t="n">
-        <v>1447.075073912752</v>
+        <v>1447.075073912753</v>
       </c>
       <c r="O25" t="n">
-        <v>1792.876416263428</v>
+        <v>1746.404672833166</v>
       </c>
       <c r="P25" t="n">
-        <v>2025.483916697087</v>
+        <v>1979.012173266826</v>
       </c>
       <c r="Q25" t="n">
-        <v>2103.094212849602</v>
+        <v>2103.094212849596</v>
       </c>
       <c r="R25" t="n">
-        <v>2073.662051046945</v>
+        <v>2073.662051046939</v>
       </c>
       <c r="S25" t="n">
-        <v>1942.374462313586</v>
+        <v>1942.374462313581</v>
       </c>
       <c r="T25" t="n">
-        <v>1781.006142322927</v>
+        <v>1781.006142322922</v>
       </c>
       <c r="U25" t="n">
-        <v>1552.301570888385</v>
+        <v>1552.301570888381</v>
       </c>
       <c r="V25" t="n">
-        <v>1358.015378122313</v>
+        <v>1358.01537812231</v>
       </c>
       <c r="W25" t="n">
-        <v>1128.996503525168</v>
+        <v>1128.996503525164</v>
       </c>
       <c r="X25" t="n">
-        <v>961.4052480669654</v>
+        <v>961.405248066962</v>
       </c>
       <c r="Y25" t="n">
-        <v>801.0109643632503</v>
+        <v>801.0109643632472</v>
       </c>
     </row>
     <row r="26">
@@ -6200,76 +6200,76 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>2109.724823379477</v>
+        <v>2109.724823379473</v>
       </c>
       <c r="C26" t="n">
-        <v>1776.96366155701</v>
+        <v>1776.963661557007</v>
       </c>
       <c r="D26" t="n">
-        <v>1454.899318068205</v>
+        <v>1454.899318068202</v>
       </c>
       <c r="E26" t="n">
-        <v>1105.312420587905</v>
+        <v>1105.312420587903</v>
       </c>
       <c r="F26" t="n">
-        <v>730.5278709162426</v>
+        <v>730.5278709162403</v>
       </c>
       <c r="G26" t="n">
-        <v>351.656775879184</v>
+        <v>351.6567758791825</v>
       </c>
       <c r="H26" t="n">
-        <v>90.27453060589569</v>
+        <v>90.27453060589512</v>
       </c>
       <c r="I26" t="n">
-        <v>84.47898696330925</v>
+        <v>84.47898696330911</v>
       </c>
       <c r="J26" t="n">
-        <v>304.0582536589754</v>
+        <v>273.3581179223345</v>
       </c>
       <c r="K26" t="n">
-        <v>958.7815857942749</v>
+        <v>607.177491612181</v>
       </c>
       <c r="L26" t="n">
-        <v>1409.815799042683</v>
+        <v>1058.21170486059</v>
       </c>
       <c r="M26" t="n">
-        <v>1943.347703714608</v>
+        <v>1591.743609532514</v>
       </c>
       <c r="N26" t="n">
-        <v>2490.12652077339</v>
+        <v>2138.522426591297</v>
       </c>
       <c r="O26" t="n">
-        <v>2993.098991652727</v>
+        <v>2993.09899165272</v>
       </c>
       <c r="P26" t="n">
-        <v>3706.454079099673</v>
+        <v>3706.454079099665</v>
       </c>
       <c r="Q26" t="n">
-        <v>4164.932281608661</v>
+        <v>4164.932281608653</v>
       </c>
       <c r="R26" t="n">
-        <v>4223.949348165463</v>
+        <v>4223.949348165455</v>
       </c>
       <c r="S26" t="n">
-        <v>4149.860034810503</v>
+        <v>4149.860034810496</v>
       </c>
       <c r="T26" t="n">
-        <v>3980.083642312669</v>
+        <v>3980.083642312663</v>
       </c>
       <c r="U26" t="n">
-        <v>3762.754520704451</v>
+        <v>3762.754520704446</v>
       </c>
       <c r="V26" t="n">
-        <v>3467.892988478825</v>
+        <v>3467.89298847882</v>
       </c>
       <c r="W26" t="n">
-        <v>3151.325688326656</v>
+        <v>3151.325688326651</v>
       </c>
       <c r="X26" t="n">
-        <v>2814.061285183521</v>
+        <v>2814.061285183517</v>
       </c>
       <c r="Y26" t="n">
-        <v>2460.123308325654</v>
+        <v>2460.12330832565</v>
       </c>
     </row>
     <row r="27">
@@ -6279,43 +6279,43 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>959.5107250122345</v>
+        <v>959.5107250122342</v>
       </c>
       <c r="C27" t="n">
-        <v>785.0576957311075</v>
+        <v>785.0576957311072</v>
       </c>
       <c r="D27" t="n">
-        <v>636.1232860698562</v>
+        <v>636.123286069856</v>
       </c>
       <c r="E27" t="n">
-        <v>476.8858310644007</v>
+        <v>476.8858310644005</v>
       </c>
       <c r="F27" t="n">
-        <v>330.3512730912857</v>
+        <v>330.3512730912855</v>
       </c>
       <c r="G27" t="n">
-        <v>193.9881729239038</v>
+        <v>193.9881729239036</v>
       </c>
       <c r="H27" t="n">
-        <v>103.4862785617713</v>
+        <v>103.4862785617712</v>
       </c>
       <c r="I27" t="n">
-        <v>84.47898696330925</v>
+        <v>84.47898696330911</v>
       </c>
       <c r="J27" t="n">
-        <v>178.1562564539271</v>
+        <v>178.1562564539265</v>
       </c>
       <c r="K27" t="n">
-        <v>416.4204554342742</v>
+        <v>416.4204554342737</v>
       </c>
       <c r="L27" t="n">
-        <v>783.1186157469394</v>
+        <v>783.1186157469391</v>
       </c>
       <c r="M27" t="n">
         <v>1230.394940969255</v>
       </c>
       <c r="N27" t="n">
-        <v>1703.91798452371</v>
+        <v>1703.917984523709</v>
       </c>
       <c r="O27" t="n">
         <v>2114.879263941764</v>
@@ -6358,76 +6358,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>588.0031230547921</v>
+        <v>588.0031230547993</v>
       </c>
       <c r="C28" t="n">
-        <v>455.26829524483</v>
+        <v>455.2682952448376</v>
       </c>
       <c r="D28" t="n">
-        <v>341.3530109504392</v>
+        <v>368.0036398714315</v>
       </c>
       <c r="E28" t="n">
-        <v>229.6412724859909</v>
+        <v>256.2919014069836</v>
       </c>
       <c r="F28" t="n">
-        <v>229.6412724859909</v>
+        <v>145.6033090270185</v>
       </c>
       <c r="G28" t="n">
-        <v>98.13979097865469</v>
+        <v>145.6033090270185</v>
       </c>
       <c r="H28" t="n">
-        <v>98.13979097865469</v>
+        <v>145.6033090270185</v>
       </c>
       <c r="I28" t="n">
-        <v>84.47898696330925</v>
+        <v>84.47898696330911</v>
       </c>
       <c r="J28" t="n">
-        <v>165.0825675613425</v>
+        <v>165.0825675613428</v>
       </c>
       <c r="K28" t="n">
-        <v>404.5506986613165</v>
+        <v>404.5506986613173</v>
       </c>
       <c r="L28" t="n">
-        <v>756.5914452609103</v>
+        <v>756.5914452609115</v>
       </c>
       <c r="M28" t="n">
-        <v>1136.229439011557</v>
+        <v>1136.229439011558</v>
       </c>
       <c r="N28" t="n">
-        <v>1513.118763868519</v>
+        <v>1513.118763868521</v>
       </c>
       <c r="O28" t="n">
-        <v>1847.92931094003</v>
+        <v>1847.929310940033</v>
       </c>
       <c r="P28" t="n">
-        <v>2116.017759524787</v>
+        <v>2116.017759524791</v>
       </c>
       <c r="Q28" t="n">
-        <v>2229.1090038284</v>
+        <v>2229.109003828403</v>
       </c>
       <c r="R28" t="n">
-        <v>2175.479901703872</v>
+        <v>2175.479901703876</v>
       </c>
       <c r="S28" t="n">
-        <v>2019.995372648643</v>
+        <v>2019.995372648648</v>
       </c>
       <c r="T28" t="n">
-        <v>1834.430112336114</v>
+        <v>1834.430112336119</v>
       </c>
       <c r="U28" t="n">
-        <v>1581.528600579702</v>
+        <v>1581.528600579708</v>
       </c>
       <c r="V28" t="n">
-        <v>1363.045467491761</v>
+        <v>1363.045467491766</v>
       </c>
       <c r="W28" t="n">
-        <v>1109.829652572745</v>
+        <v>1109.829652572751</v>
       </c>
       <c r="X28" t="n">
-        <v>918.0414567926723</v>
+        <v>918.0414567926787</v>
       </c>
       <c r="Y28" t="n">
-        <v>733.450232767087</v>
+        <v>733.4502327670938</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2109.724823379477</v>
+        <v>2109.724823379474</v>
       </c>
       <c r="C29" t="n">
-        <v>1776.96366155701</v>
+        <v>1776.963661557008</v>
       </c>
       <c r="D29" t="n">
-        <v>1454.899318068205</v>
+        <v>1454.899318068202</v>
       </c>
       <c r="E29" t="n">
-        <v>1105.312420587905</v>
+        <v>1105.312420587903</v>
       </c>
       <c r="F29" t="n">
-        <v>730.5278709162426</v>
+        <v>730.5278709162411</v>
       </c>
       <c r="G29" t="n">
-        <v>351.6567758791839</v>
+        <v>351.6567758791829</v>
       </c>
       <c r="H29" t="n">
-        <v>90.27453060589569</v>
+        <v>90.27453060589509</v>
       </c>
       <c r="I29" t="n">
-        <v>84.47898696330925</v>
+        <v>84.47898696330913</v>
       </c>
       <c r="J29" t="n">
-        <v>440.7637669426877</v>
+        <v>273.3581179223345</v>
       </c>
       <c r="K29" t="n">
-        <v>893.7223301200218</v>
+        <v>607.1774916121808</v>
       </c>
       <c r="L29" t="n">
-        <v>1344.75654336843</v>
+        <v>1058.211704860589</v>
       </c>
       <c r="M29" t="n">
-        <v>1878.288448040355</v>
+        <v>1591.743609532514</v>
       </c>
       <c r="N29" t="n">
-        <v>2425.067265099137</v>
+        <v>2571.495881759161</v>
       </c>
       <c r="O29" t="n">
-        <v>2928.039735978474</v>
+        <v>3451.460532088615</v>
       </c>
       <c r="P29" t="n">
-        <v>3641.394823425419</v>
+        <v>3846.234898445793</v>
       </c>
       <c r="Q29" t="n">
-        <v>4099.873025934407</v>
+        <v>4164.932281608654</v>
       </c>
       <c r="R29" t="n">
-        <v>4223.949348165463</v>
+        <v>4223.949348165456</v>
       </c>
       <c r="S29" t="n">
-        <v>4149.860034810503</v>
+        <v>4149.860034810496</v>
       </c>
       <c r="T29" t="n">
-        <v>3980.083642312669</v>
+        <v>3980.083642312663</v>
       </c>
       <c r="U29" t="n">
-        <v>3762.754520704451</v>
+        <v>3762.754520704446</v>
       </c>
       <c r="V29" t="n">
-        <v>3467.892988478825</v>
+        <v>3467.89298847882</v>
       </c>
       <c r="W29" t="n">
-        <v>3151.325688326656</v>
+        <v>3151.325688326651</v>
       </c>
       <c r="X29" t="n">
-        <v>2814.061285183521</v>
+        <v>2814.061285183517</v>
       </c>
       <c r="Y29" t="n">
-        <v>2460.123308325654</v>
+        <v>2460.12330832565</v>
       </c>
     </row>
     <row r="30">
@@ -6516,73 +6516,73 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>959.5107250122345</v>
+        <v>959.5107250122335</v>
       </c>
       <c r="C30" t="n">
-        <v>785.0576957311075</v>
+        <v>785.0576957311065</v>
       </c>
       <c r="D30" t="n">
-        <v>636.1232860698562</v>
+        <v>636.1232860698552</v>
       </c>
       <c r="E30" t="n">
-        <v>476.8858310644007</v>
+        <v>476.8858310643997</v>
       </c>
       <c r="F30" t="n">
-        <v>330.3512730912857</v>
+        <v>330.3512730912847</v>
       </c>
       <c r="G30" t="n">
-        <v>193.9881729239038</v>
+        <v>193.9881729239028</v>
       </c>
       <c r="H30" t="n">
-        <v>103.4862785617713</v>
+        <v>103.4862785617703</v>
       </c>
       <c r="I30" t="n">
-        <v>84.47898696330925</v>
+        <v>84.47898696330913</v>
       </c>
       <c r="J30" t="n">
-        <v>178.1562564539265</v>
+        <v>178.1562564539264</v>
       </c>
       <c r="K30" t="n">
-        <v>416.4204554342742</v>
+        <v>416.4204554342735</v>
       </c>
       <c r="L30" t="n">
-        <v>783.1186157469394</v>
+        <v>783.1186157469388</v>
       </c>
       <c r="M30" t="n">
         <v>1230.394940969255</v>
       </c>
       <c r="N30" t="n">
-        <v>1703.91798452371</v>
+        <v>1703.917984523709</v>
       </c>
       <c r="O30" t="n">
         <v>2114.879263941764</v>
       </c>
       <c r="P30" t="n">
-        <v>2425.378855417867</v>
+        <v>2425.378855417866</v>
       </c>
       <c r="Q30" t="n">
-        <v>2583.020413064467</v>
+        <v>2583.020413064466</v>
       </c>
       <c r="R30" t="n">
-        <v>2582.876059656982</v>
+        <v>2582.876059656981</v>
       </c>
       <c r="S30" t="n">
-        <v>2453.438173150462</v>
+        <v>2453.438173150461</v>
       </c>
       <c r="T30" t="n">
-        <v>2260.795172828318</v>
+        <v>2260.795172828317</v>
       </c>
       <c r="U30" t="n">
-        <v>2032.727325962733</v>
+        <v>2032.727325962732</v>
       </c>
       <c r="V30" t="n">
-        <v>1797.575217730991</v>
+        <v>1797.57521773099</v>
       </c>
       <c r="W30" t="n">
-        <v>1543.337861002789</v>
+        <v>1543.337861002788</v>
       </c>
       <c r="X30" t="n">
-        <v>1335.486360797256</v>
+        <v>1335.486360797255</v>
       </c>
       <c r="Y30" t="n">
         <v>1127.726062032302</v>
@@ -6595,76 +6595,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>588.0031230547928</v>
+        <v>588.0031230548003</v>
       </c>
       <c r="C31" t="n">
-        <v>455.2682952448308</v>
+        <v>455.2682952448387</v>
       </c>
       <c r="D31" t="n">
-        <v>341.3530109504399</v>
+        <v>341.3530109504483</v>
       </c>
       <c r="E31" t="n">
-        <v>341.3530109504399</v>
+        <v>325.9963001348418</v>
       </c>
       <c r="F31" t="n">
-        <v>325.9963001348428</v>
+        <v>325.9963001348418</v>
       </c>
       <c r="G31" t="n">
-        <v>194.4948186275066</v>
+        <v>194.494818627506</v>
       </c>
       <c r="H31" t="n">
-        <v>84.47898696330925</v>
+        <v>84.47898696330913</v>
       </c>
       <c r="I31" t="n">
-        <v>84.47898696330925</v>
+        <v>84.47898696330913</v>
       </c>
       <c r="J31" t="n">
-        <v>165.0825675613425</v>
+        <v>165.0825675613428</v>
       </c>
       <c r="K31" t="n">
-        <v>404.5506986613168</v>
+        <v>404.5506986613174</v>
       </c>
       <c r="L31" t="n">
-        <v>756.5914452609106</v>
+        <v>756.5914452609117</v>
       </c>
       <c r="M31" t="n">
-        <v>1136.229439011557</v>
+        <v>1136.229439011559</v>
       </c>
       <c r="N31" t="n">
-        <v>1513.11876386852</v>
+        <v>1513.118763868521</v>
       </c>
       <c r="O31" t="n">
-        <v>1847.929310940031</v>
+        <v>1847.929310940033</v>
       </c>
       <c r="P31" t="n">
-        <v>2116.017759524788</v>
+        <v>2116.017759524791</v>
       </c>
       <c r="Q31" t="n">
-        <v>2229.1090038284</v>
+        <v>2229.109003828403</v>
       </c>
       <c r="R31" t="n">
-        <v>2175.479901703873</v>
+        <v>2175.479901703877</v>
       </c>
       <c r="S31" t="n">
-        <v>2019.995372648644</v>
+        <v>2019.995372648649</v>
       </c>
       <c r="T31" t="n">
-        <v>1834.430112336115</v>
+        <v>1834.43011233612</v>
       </c>
       <c r="U31" t="n">
-        <v>1581.528600579704</v>
+        <v>1581.528600579709</v>
       </c>
       <c r="V31" t="n">
-        <v>1363.045467491762</v>
+        <v>1363.045467491767</v>
       </c>
       <c r="W31" t="n">
-        <v>1109.829652572746</v>
+        <v>1109.829652572752</v>
       </c>
       <c r="X31" t="n">
-        <v>918.0414567926734</v>
+        <v>918.0414567926798</v>
       </c>
       <c r="Y31" t="n">
-        <v>733.4502327670876</v>
+        <v>733.4502327670947</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2096.596160043303</v>
+        <v>2096.596160043298</v>
       </c>
       <c r="C32" t="n">
-        <v>1765.63193817467</v>
+        <v>1765.631938174666</v>
       </c>
       <c r="D32" t="n">
-        <v>1445.364534639698</v>
+        <v>1445.364534639695</v>
       </c>
       <c r="E32" t="n">
-        <v>1097.574577113232</v>
+        <v>1097.57457711323</v>
       </c>
       <c r="F32" t="n">
-        <v>724.5869673954037</v>
+        <v>724.5869673954014</v>
       </c>
       <c r="G32" t="n">
-        <v>347.512812312179</v>
+        <v>347.5128123121772</v>
       </c>
       <c r="H32" t="n">
-        <v>87.92750699272482</v>
+        <v>87.92750699272425</v>
       </c>
       <c r="I32" t="n">
-        <v>83.92890330397233</v>
+        <v>83.92890330397219</v>
       </c>
       <c r="J32" t="n">
-        <v>440.2136832833507</v>
+        <v>272.8080342629976</v>
       </c>
       <c r="K32" t="n">
-        <v>1094.93701541865</v>
+        <v>927.531366398297</v>
       </c>
       <c r="L32" t="n">
-        <v>1545.971228667059</v>
+        <v>1378.565579646706</v>
       </c>
       <c r="M32" t="n">
-        <v>2079.503133338983</v>
+        <v>1912.09748431863</v>
       </c>
       <c r="N32" t="n">
-        <v>2626.281950397765</v>
+        <v>2891.849756545276</v>
       </c>
       <c r="O32" t="n">
-        <v>3219.116274101395</v>
+        <v>3394.822227424613</v>
       </c>
       <c r="P32" t="n">
-        <v>3613.890640458573</v>
+        <v>3789.596593781791</v>
       </c>
       <c r="Q32" t="n">
-        <v>4072.368842967561</v>
+        <v>4072.368842967554</v>
       </c>
       <c r="R32" t="n">
-        <v>4196.445165198616</v>
+        <v>4196.445165198609</v>
       </c>
       <c r="S32" t="n">
-        <v>4124.15279179749</v>
+        <v>4124.152791797484</v>
       </c>
       <c r="T32" t="n">
-        <v>3956.173339253491</v>
+        <v>3956.173339253485</v>
       </c>
       <c r="U32" t="n">
-        <v>3740.641157599106</v>
+        <v>3740.6411575991</v>
       </c>
       <c r="V32" t="n">
-        <v>3447.576565327315</v>
+        <v>3447.576565327309</v>
       </c>
       <c r="W32" t="n">
-        <v>3132.80620512898</v>
+        <v>3132.806205128974</v>
       </c>
       <c r="X32" t="n">
-        <v>2797.338741939679</v>
+        <v>2797.338741939673</v>
       </c>
       <c r="Y32" t="n">
-        <v>2445.197705035646</v>
+        <v>2445.197705035641</v>
       </c>
     </row>
     <row r="33">
@@ -6753,46 +6753,46 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>958.9606413528976</v>
+        <v>958.960641352897</v>
       </c>
       <c r="C33" t="n">
-        <v>784.5076120717706</v>
+        <v>784.50761207177</v>
       </c>
       <c r="D33" t="n">
-        <v>635.5732024105193</v>
+        <v>635.5732024105188</v>
       </c>
       <c r="E33" t="n">
-        <v>476.3357474050638</v>
+        <v>476.3357474050633</v>
       </c>
       <c r="F33" t="n">
-        <v>329.8011894319488</v>
+        <v>329.8011894319483</v>
       </c>
       <c r="G33" t="n">
-        <v>193.4380892645669</v>
+        <v>193.4380892645664</v>
       </c>
       <c r="H33" t="n">
-        <v>102.9361949024344</v>
+        <v>102.9361949024339</v>
       </c>
       <c r="I33" t="n">
-        <v>83.92890330397233</v>
+        <v>83.92890330397219</v>
       </c>
       <c r="J33" t="n">
-        <v>177.6061727945896</v>
+        <v>177.6061727945895</v>
       </c>
       <c r="K33" t="n">
-        <v>415.8703717749377</v>
+        <v>415.8703717749365</v>
       </c>
       <c r="L33" t="n">
-        <v>782.568532087603</v>
+        <v>782.5685320876019</v>
       </c>
       <c r="M33" t="n">
-        <v>1229.844857309919</v>
+        <v>1229.844857309918</v>
       </c>
       <c r="N33" t="n">
-        <v>1703.367900864373</v>
+        <v>1703.367900864372</v>
       </c>
       <c r="O33" t="n">
-        <v>2114.329180282428</v>
+        <v>2114.329180282427</v>
       </c>
       <c r="P33" t="n">
         <v>2424.82877175853</v>
@@ -6807,13 +6807,13 @@
         <v>2452.888089491125</v>
       </c>
       <c r="T33" t="n">
-        <v>2260.245089168981</v>
+        <v>2260.24508916898</v>
       </c>
       <c r="U33" t="n">
         <v>2032.177242303396</v>
       </c>
       <c r="V33" t="n">
-        <v>1797.025134071654</v>
+        <v>1797.025134071653</v>
       </c>
       <c r="W33" t="n">
         <v>1542.787777343452</v>
@@ -6822,7 +6822,7 @@
         <v>1334.936277137919</v>
       </c>
       <c r="Y33" t="n">
-        <v>1127.175978372966</v>
+        <v>1127.175978372965</v>
       </c>
     </row>
     <row r="34">
@@ -6832,76 +6832,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>617.7149457699826</v>
+        <v>617.7149457699898</v>
       </c>
       <c r="C34" t="n">
-        <v>486.7770579138545</v>
+        <v>486.7770579138621</v>
       </c>
       <c r="D34" t="n">
-        <v>486.7770579138545</v>
+        <v>374.6587135733056</v>
       </c>
       <c r="E34" t="n">
-        <v>486.7770579138545</v>
+        <v>264.7439150626918</v>
       </c>
       <c r="F34" t="n">
-        <v>377.8854054877229</v>
+        <v>264.7439150626918</v>
       </c>
       <c r="G34" t="n">
-        <v>248.1808639342207</v>
+        <v>251.4751771242106</v>
       </c>
       <c r="H34" t="n">
-        <v>139.9619722238574</v>
+        <v>143.2562854138476</v>
       </c>
       <c r="I34" t="n">
-        <v>83.92890330397233</v>
+        <v>83.92890330397219</v>
       </c>
       <c r="J34" t="n">
-        <v>166.2936647507582</v>
+        <v>166.2936647507586</v>
       </c>
       <c r="K34" t="n">
-        <v>407.522976699485</v>
+        <v>407.5229766994858</v>
       </c>
       <c r="L34" t="n">
-        <v>761.3249041478314</v>
+        <v>761.3249041478326</v>
       </c>
       <c r="M34" t="n">
-        <v>1142.724078747231</v>
+        <v>1142.724078747232</v>
       </c>
       <c r="N34" t="n">
-        <v>1521.374584452946</v>
+        <v>1521.374584452948</v>
       </c>
       <c r="O34" t="n">
-        <v>1857.946312373209</v>
+        <v>1857.946312373212</v>
       </c>
       <c r="P34" t="n">
-        <v>2127.795941806719</v>
+        <v>2127.795941806723</v>
       </c>
       <c r="Q34" t="n">
-        <v>2242.648366959084</v>
+        <v>2242.648366959088</v>
       </c>
       <c r="R34" t="n">
-        <v>2190.816204788391</v>
+        <v>2190.816204788395</v>
       </c>
       <c r="S34" t="n">
-        <v>2037.128615686996</v>
+        <v>2037.128615687001</v>
       </c>
       <c r="T34" t="n">
-        <v>1853.360295328301</v>
+        <v>1853.360295328306</v>
       </c>
       <c r="U34" t="n">
-        <v>1602.255723525724</v>
+        <v>1602.255723525729</v>
       </c>
       <c r="V34" t="n">
-        <v>1385.569530391615</v>
+        <v>1385.569530391621</v>
       </c>
       <c r="W34" t="n">
-        <v>1134.150655426433</v>
+        <v>1134.15065542644</v>
       </c>
       <c r="X34" t="n">
-        <v>944.1593996001948</v>
+        <v>944.1593996002011</v>
       </c>
       <c r="Y34" t="n">
-        <v>761.3651155284435</v>
+        <v>761.3651155284502</v>
       </c>
     </row>
     <row r="35">
@@ -6911,76 +6911,76 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1886.94776046765</v>
+        <v>1886.947760467651</v>
       </c>
       <c r="C35" t="n">
-        <v>1588.687569101515</v>
+        <v>1588.687569101516</v>
       </c>
       <c r="D35" t="n">
-        <v>1301.124196069041</v>
+        <v>1301.124196069042</v>
       </c>
       <c r="E35" t="n">
-        <v>986.0382690450738</v>
+        <v>986.0382690450743</v>
       </c>
       <c r="F35" t="n">
-        <v>645.7546898297429</v>
+        <v>645.7546898297434</v>
       </c>
       <c r="G35" t="n">
         <v>301.3845652490158</v>
       </c>
       <c r="H35" t="n">
-        <v>74.50329043205964</v>
+        <v>74.50329043205967</v>
       </c>
       <c r="I35" t="n">
-        <v>74.50329043205964</v>
+        <v>74.50329043205967</v>
       </c>
       <c r="J35" t="n">
-        <v>263.382421391085</v>
+        <v>263.3824213910851</v>
       </c>
       <c r="K35" t="n">
-        <v>597.2017950809313</v>
+        <v>918.1057535263844</v>
       </c>
       <c r="L35" t="n">
-        <v>1048.23600832934</v>
+        <v>1369.139966774793</v>
       </c>
       <c r="M35" t="n">
-        <v>1581.767913001264</v>
+        <v>1973.335438995202</v>
       </c>
       <c r="N35" t="n">
-        <v>2503.746132098002</v>
+        <v>2520.114256053984</v>
       </c>
       <c r="O35" t="n">
-        <v>3006.718602977339</v>
+        <v>3023.086726933321</v>
       </c>
       <c r="P35" t="n">
-        <v>3401.492969334517</v>
+        <v>3417.861093290499</v>
       </c>
       <c r="Q35" t="n">
-        <v>3649.779331090199</v>
+        <v>3666.147455046181</v>
       </c>
       <c r="R35" t="n">
-        <v>3725.164521602982</v>
+        <v>3725.164521602983</v>
       </c>
       <c r="S35" t="n">
-        <v>3685.576178704354</v>
+        <v>3685.576178704355</v>
       </c>
       <c r="T35" t="n">
-        <v>3550.300756662853</v>
+        <v>3550.300756662854</v>
       </c>
       <c r="U35" t="n">
-        <v>3367.472605510965</v>
+        <v>3367.472605510967</v>
       </c>
       <c r="V35" t="n">
-        <v>3107.112043741671</v>
+        <v>3107.112043741673</v>
       </c>
       <c r="W35" t="n">
-        <v>2825.045714045834</v>
+        <v>2825.045714045835</v>
       </c>
       <c r="X35" t="n">
         <v>2522.282281359031</v>
       </c>
       <c r="Y35" t="n">
-        <v>2202.845274957495</v>
+        <v>2202.845274957496</v>
       </c>
     </row>
     <row r="36">
@@ -7008,19 +7008,19 @@
         <v>184.0124763926542</v>
       </c>
       <c r="H36" t="n">
-        <v>93.5105820305217</v>
+        <v>93.51058203052173</v>
       </c>
       <c r="I36" t="n">
-        <v>74.50329043205964</v>
+        <v>74.50329043205967</v>
       </c>
       <c r="J36" t="n">
         <v>168.1805599226769</v>
       </c>
       <c r="K36" t="n">
-        <v>406.4447589030243</v>
+        <v>406.444758903024</v>
       </c>
       <c r="L36" t="n">
-        <v>773.1429192156895</v>
+        <v>773.1429192156893</v>
       </c>
       <c r="M36" t="n">
         <v>1220.419244438005</v>
@@ -7069,28 +7069,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>604.6885754217471</v>
+        <v>604.6885754217475</v>
       </c>
       <c r="C37" t="n">
-        <v>506.4547180681168</v>
+        <v>506.4547180681171</v>
       </c>
       <c r="D37" t="n">
-        <v>427.0404042300578</v>
+        <v>427.040404230058</v>
       </c>
       <c r="E37" t="n">
-        <v>349.8296362219413</v>
+        <v>349.8296362219415</v>
       </c>
       <c r="F37" t="n">
-        <v>273.6420142983076</v>
+        <v>273.6420142983078</v>
       </c>
       <c r="G37" t="n">
-        <v>176.6415032473032</v>
+        <v>176.6415032473033</v>
       </c>
       <c r="H37" t="n">
         <v>101.1266420394377</v>
       </c>
       <c r="I37" t="n">
-        <v>74.50329043205964</v>
+        <v>74.50329043205967</v>
       </c>
       <c r="J37" t="n">
         <v>119.6259228789952</v>
@@ -7099,10 +7099,10 @@
         <v>323.6131058278715</v>
       </c>
       <c r="L37" t="n">
-        <v>640.1729042763675</v>
+        <v>640.1729042763677</v>
       </c>
       <c r="M37" t="n">
-        <v>984.3299498759163</v>
+        <v>984.3299498759167</v>
       </c>
       <c r="N37" t="n">
         <v>1325.738326581781</v>
@@ -7123,22 +7123,22 @@
         <v>1795.174031821276</v>
       </c>
       <c r="T37" t="n">
-        <v>1644.109741965078</v>
+        <v>1644.109741965079</v>
       </c>
       <c r="U37" t="n">
         <v>1425.709200664999</v>
       </c>
       <c r="V37" t="n">
-        <v>1241.727038033388</v>
+        <v>1241.727038033389</v>
       </c>
       <c r="W37" t="n">
-        <v>1023.012193570704</v>
+        <v>1023.012193570705</v>
       </c>
       <c r="X37" t="n">
-        <v>865.7249682469637</v>
+        <v>865.7249682469641</v>
       </c>
       <c r="Y37" t="n">
-        <v>715.6347146777102</v>
+        <v>715.6347146777106</v>
       </c>
     </row>
     <row r="38">
@@ -7148,76 +7148,76 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1886.94776046765</v>
+        <v>1886.947760467651</v>
       </c>
       <c r="C38" t="n">
-        <v>1588.687569101515</v>
+        <v>1588.687569101516</v>
       </c>
       <c r="D38" t="n">
-        <v>1301.124196069041</v>
+        <v>1301.124196069042</v>
       </c>
       <c r="E38" t="n">
-        <v>986.0382690450738</v>
+        <v>986.0382690450743</v>
       </c>
       <c r="F38" t="n">
-        <v>645.7546898297428</v>
+        <v>645.7546898297434</v>
       </c>
       <c r="G38" t="n">
-        <v>301.3845652490158</v>
+        <v>301.3845652490159</v>
       </c>
       <c r="H38" t="n">
-        <v>74.50329043205964</v>
+        <v>74.50329043205967</v>
       </c>
       <c r="I38" t="n">
-        <v>74.50329043205964</v>
+        <v>74.50329043205967</v>
       </c>
       <c r="J38" t="n">
-        <v>271.3099706210004</v>
+        <v>263.3824213910851</v>
       </c>
       <c r="K38" t="n">
-        <v>605.1293443108468</v>
+        <v>918.1057535263844</v>
       </c>
       <c r="L38" t="n">
-        <v>1056.163557559255</v>
+        <v>1369.139966774793</v>
       </c>
       <c r="M38" t="n">
-        <v>1589.69546223118</v>
+        <v>1973.335438995202</v>
       </c>
       <c r="N38" t="n">
-        <v>2136.474279289962</v>
+        <v>2520.114256053984</v>
       </c>
       <c r="O38" t="n">
-        <v>2639.446750169299</v>
+        <v>3023.086726933321</v>
       </c>
       <c r="P38" t="n">
-        <v>3352.801837616244</v>
+        <v>3417.861093290499</v>
       </c>
       <c r="Q38" t="n">
-        <v>3601.088199371927</v>
+        <v>3666.147455046181</v>
       </c>
       <c r="R38" t="n">
-        <v>3725.164521602982</v>
+        <v>3725.164521602983</v>
       </c>
       <c r="S38" t="n">
-        <v>3685.576178704353</v>
+        <v>3685.576178704355</v>
       </c>
       <c r="T38" t="n">
-        <v>3550.300756662853</v>
+        <v>3550.300756662854</v>
       </c>
       <c r="U38" t="n">
-        <v>3367.472605510965</v>
+        <v>3367.472605510967</v>
       </c>
       <c r="V38" t="n">
-        <v>3107.112043741671</v>
+        <v>3107.112043741673</v>
       </c>
       <c r="W38" t="n">
-        <v>2825.045714045834</v>
+        <v>2825.045714045835</v>
       </c>
       <c r="X38" t="n">
         <v>2522.282281359031</v>
       </c>
       <c r="Y38" t="n">
-        <v>2202.845274957495</v>
+        <v>2202.845274957496</v>
       </c>
     </row>
     <row r="39">
@@ -7245,19 +7245,19 @@
         <v>184.0124763926542</v>
       </c>
       <c r="H39" t="n">
-        <v>93.5105820305217</v>
+        <v>93.51058203052173</v>
       </c>
       <c r="I39" t="n">
-        <v>74.50329043205964</v>
+        <v>74.50329043205967</v>
       </c>
       <c r="J39" t="n">
         <v>168.1805599226769</v>
       </c>
       <c r="K39" t="n">
-        <v>406.4447589030243</v>
+        <v>406.444758903024</v>
       </c>
       <c r="L39" t="n">
-        <v>773.1429192156895</v>
+        <v>773.1429192156893</v>
       </c>
       <c r="M39" t="n">
         <v>1220.419244438005</v>
@@ -7306,28 +7306,28 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>604.6885754217475</v>
+        <v>604.6885754217473</v>
       </c>
       <c r="C40" t="n">
-        <v>506.4547180681172</v>
+        <v>506.4547180681169</v>
       </c>
       <c r="D40" t="n">
-        <v>427.0404042300581</v>
+        <v>427.0404042300577</v>
       </c>
       <c r="E40" t="n">
-        <v>349.8296362219415</v>
+        <v>349.8296362219412</v>
       </c>
       <c r="F40" t="n">
-        <v>273.6420142983078</v>
+        <v>273.6420142983075</v>
       </c>
       <c r="G40" t="n">
-        <v>176.6415032473033</v>
+        <v>176.641503247303</v>
       </c>
       <c r="H40" t="n">
-        <v>101.1266420394377</v>
+        <v>101.1266420394372</v>
       </c>
       <c r="I40" t="n">
-        <v>74.50329043205964</v>
+        <v>74.50329043205967</v>
       </c>
       <c r="J40" t="n">
         <v>119.6259228789952</v>
@@ -7339,10 +7339,10 @@
         <v>640.1729042763676</v>
       </c>
       <c r="M40" t="n">
-        <v>984.329949875917</v>
+        <v>984.3299498759166</v>
       </c>
       <c r="N40" t="n">
-        <v>1325.738326581782</v>
+        <v>1325.738326581781</v>
       </c>
       <c r="O40" t="n">
         <v>1625.067925502195</v>
@@ -7351,7 +7351,7 @@
         <v>1857.675425935854</v>
       </c>
       <c r="Q40" t="n">
-        <v>1935.285722088369</v>
+        <v>1935.285722088368</v>
       </c>
       <c r="R40" t="n">
         <v>1916.157590420173</v>
@@ -7366,16 +7366,16 @@
         <v>1425.709200664999</v>
       </c>
       <c r="V40" t="n">
-        <v>1241.727038033389</v>
+        <v>1241.727038033388</v>
       </c>
       <c r="W40" t="n">
         <v>1023.012193570705</v>
       </c>
       <c r="X40" t="n">
-        <v>865.7249682469641</v>
+        <v>865.7249682469638</v>
       </c>
       <c r="Y40" t="n">
-        <v>715.6347146777106</v>
+        <v>715.6347146777103</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2018.472742224994</v>
+        <v>1369.318056916146</v>
       </c>
       <c r="C41" t="n">
-        <v>1696.959858232656</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="D41" t="n">
-        <v>1386.143792573979</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="E41" t="n">
-        <v>1047.805172923808</v>
+        <v>1047.805172923807</v>
       </c>
       <c r="F41" t="n">
-        <v>684.2689010822735</v>
+        <v>684.2689010822731</v>
       </c>
       <c r="G41" t="n">
         <v>316.6460838753429</v>
       </c>
       <c r="H41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="I41" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J41" t="n">
-        <v>255.3912473912096</v>
+        <v>255.3912473912087</v>
       </c>
       <c r="K41" t="n">
-        <v>589.2106210810557</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L41" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M41" t="n">
-        <v>1573.776739001389</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N41" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O41" t="n">
-        <v>2623.528026939508</v>
+        <v>2623.528026939506</v>
       </c>
       <c r="P41" t="n">
-        <v>3018.302393296686</v>
+        <v>3018.302393296684</v>
       </c>
       <c r="Q41" t="n">
-        <v>3266.588755052368</v>
+        <v>3266.588755052367</v>
       </c>
       <c r="R41" t="n">
-        <v>3325.605821609171</v>
+        <v>3325.60582160917</v>
       </c>
       <c r="S41" t="n">
-        <v>3325.605821609171</v>
+        <v>3262.764786084338</v>
       </c>
       <c r="T41" t="n">
-        <v>3309.942028077285</v>
+        <v>3104.236671416633</v>
       </c>
       <c r="U41" t="n">
-        <v>3309.942028077285</v>
+        <v>2898.155827638543</v>
       </c>
       <c r="V41" t="n">
-        <v>3026.328773681787</v>
+        <v>2682.49311069498</v>
       </c>
       <c r="W41" t="n">
-        <v>3026.328773681787</v>
+        <v>2377.174088372939</v>
       </c>
       <c r="X41" t="n">
-        <v>2700.312648368781</v>
+        <v>2051.157963059933</v>
       </c>
       <c r="Y41" t="n">
-        <v>2357.622949341043</v>
+        <v>1708.468264032194</v>
       </c>
     </row>
     <row r="42">
@@ -7482,13 +7482,13 @@
         <v>176.021302392778</v>
       </c>
       <c r="H42" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I42" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J42" t="n">
-        <v>160.1893859228007</v>
+        <v>160.1893859228011</v>
       </c>
       <c r="K42" t="n">
         <v>398.4535849031482</v>
@@ -7543,34 +7543,34 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>759.4662498052944</v>
+        <v>759.466249805294</v>
       </c>
       <c r="C43" t="n">
-        <v>637.9796998254608</v>
+        <v>637.9796998254603</v>
       </c>
       <c r="D43" t="n">
-        <v>535.3126933611984</v>
+        <v>535.3126933611979</v>
       </c>
       <c r="E43" t="n">
-        <v>434.8492327268787</v>
+        <v>434.8492327268781</v>
       </c>
       <c r="F43" t="n">
-        <v>335.4089181770416</v>
+        <v>335.4089181770411</v>
       </c>
       <c r="G43" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998333</v>
       </c>
       <c r="H43" t="n">
         <v>116.3881606657648</v>
       </c>
       <c r="I43" t="n">
-        <v>66.51211643218342</v>
+        <v>66.51211643218339</v>
       </c>
       <c r="J43" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K43" t="n">
-        <v>408.6327023328087</v>
+        <v>408.6327023328085</v>
       </c>
       <c r="L43" t="n">
         <v>771.6978860337113</v>
@@ -7597,22 +7597,22 @@
         <v>2112.720554588246</v>
       </c>
       <c r="T43" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105845</v>
       </c>
       <c r="U43" t="n">
-        <v>1696.750338179563</v>
+        <v>1696.750338179562</v>
       </c>
       <c r="V43" t="n">
         <v>1489.515482921749</v>
       </c>
       <c r="W43" t="n">
-        <v>1247.547945832862</v>
+        <v>1247.547945832861</v>
       </c>
       <c r="X43" t="n">
-        <v>1067.008027882918</v>
+        <v>1067.008027882917</v>
       </c>
       <c r="Y43" t="n">
-        <v>893.6650816874608</v>
+        <v>893.6650816874603</v>
       </c>
     </row>
     <row r="44">
@@ -7622,22 +7622,22 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>2008.666176937746</v>
+        <v>1301.367519464212</v>
       </c>
       <c r="C44" t="n">
-        <v>1687.153292945408</v>
+        <v>979.8546354718733</v>
       </c>
       <c r="D44" t="n">
-        <v>1376.33722728673</v>
+        <v>797.671205480648</v>
       </c>
       <c r="E44" t="n">
-        <v>1037.99860763656</v>
+        <v>797.671205480648</v>
       </c>
       <c r="F44" t="n">
-        <v>674.4623357950254</v>
+        <v>434.1349336391137</v>
       </c>
       <c r="G44" t="n">
-        <v>316.6460838753429</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H44" t="n">
         <v>66.51211643218342</v>
@@ -7646,19 +7646,19 @@
         <v>66.51211643218342</v>
       </c>
       <c r="J44" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K44" t="n">
-        <v>589.2106210810553</v>
+        <v>589.2106210810557</v>
       </c>
       <c r="L44" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M44" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.776739001389</v>
       </c>
       <c r="N44" t="n">
-        <v>2120.555556060171</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O44" t="n">
         <v>2623.528026939508</v>
@@ -7676,22 +7676,22 @@
         <v>3262.764786084339</v>
       </c>
       <c r="T44" t="n">
-        <v>3262.764786084339</v>
+        <v>3104.236671416634</v>
       </c>
       <c r="U44" t="n">
-        <v>3262.764786084339</v>
+        <v>2898.155827638544</v>
       </c>
       <c r="V44" t="n">
-        <v>2979.151531688842</v>
+        <v>2614.542573243046</v>
       </c>
       <c r="W44" t="n">
-        <v>2673.832509366801</v>
+        <v>2309.223550921005</v>
       </c>
       <c r="X44" t="n">
-        <v>2347.816384053795</v>
+        <v>1983.207425607999</v>
       </c>
       <c r="Y44" t="n">
-        <v>2347.816384053795</v>
+        <v>1640.51772658026</v>
       </c>
     </row>
     <row r="45">
@@ -7701,25 +7701,25 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>941.5438544811082</v>
+        <v>941.5438544811087</v>
       </c>
       <c r="C45" t="n">
-        <v>767.0908251999812</v>
+        <v>767.0908251999817</v>
       </c>
       <c r="D45" t="n">
-        <v>618.15641553873</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E45" t="n">
-        <v>458.9189605332745</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F45" t="n">
-        <v>312.3844025601595</v>
+        <v>312.3844025601599</v>
       </c>
       <c r="G45" t="n">
-        <v>176.0213023927781</v>
+        <v>176.021302392778</v>
       </c>
       <c r="H45" t="n">
-        <v>85.51940803064576</v>
+        <v>85.51940803064548</v>
       </c>
       <c r="I45" t="n">
         <v>66.51211643218342</v>
@@ -7728,10 +7728,10 @@
         <v>160.1893859228007</v>
       </c>
       <c r="K45" t="n">
-        <v>398.4535849031479</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L45" t="n">
-        <v>765.1517452158131</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M45" t="n">
         <v>1212.428070438129</v>
@@ -7743,7 +7743,7 @@
         <v>2096.912393410638</v>
       </c>
       <c r="P45" t="n">
-        <v>2407.411984886741</v>
+        <v>2407.41198488674</v>
       </c>
       <c r="Q45" t="n">
         <v>2565.053542533341</v>
@@ -7758,7 +7758,7 @@
         <v>2242.828302297192</v>
       </c>
       <c r="U45" t="n">
-        <v>2014.760455431607</v>
+        <v>2014.760455431608</v>
       </c>
       <c r="V45" t="n">
         <v>1779.608347199865</v>
@@ -7767,10 +7767,10 @@
         <v>1525.370990471663</v>
       </c>
       <c r="X45" t="n">
-        <v>1317.51949026613</v>
+        <v>1317.519490266131</v>
       </c>
       <c r="Y45" t="n">
-        <v>1109.759191501176</v>
+        <v>1109.759191501177</v>
       </c>
     </row>
     <row r="46">
@@ -7780,76 +7780,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>759.4662498052942</v>
+        <v>759.4662498052926</v>
       </c>
       <c r="C46" t="n">
-        <v>637.9796998254606</v>
+        <v>637.979699825459</v>
       </c>
       <c r="D46" t="n">
-        <v>535.3126933611982</v>
+        <v>535.3126933611965</v>
       </c>
       <c r="E46" t="n">
-        <v>434.8492327268783</v>
+        <v>434.8492327268766</v>
       </c>
       <c r="F46" t="n">
-        <v>335.4089181770413</v>
+        <v>335.4089181770395</v>
       </c>
       <c r="G46" t="n">
-        <v>215.1557144998336</v>
+        <v>215.1557144998317</v>
       </c>
       <c r="H46" t="n">
-        <v>116.3881606657647</v>
+        <v>116.3881606657648</v>
       </c>
       <c r="I46" t="n">
         <v>66.51211643218342</v>
       </c>
       <c r="J46" t="n">
-        <v>158.1401341315257</v>
+        <v>158.1401341315255</v>
       </c>
       <c r="K46" t="n">
         <v>408.6327023328084</v>
       </c>
       <c r="L46" t="n">
-        <v>771.6978860337113</v>
+        <v>771.6978860337109</v>
       </c>
       <c r="M46" t="n">
-        <v>1162.360316885667</v>
+        <v>1162.360316885666</v>
       </c>
       <c r="N46" t="n">
         <v>1550.274078843938</v>
       </c>
       <c r="O46" t="n">
-        <v>1896.109063016758</v>
+        <v>1896.109063016757</v>
       </c>
       <c r="P46" t="n">
-        <v>2175.221948702824</v>
+        <v>2175.221948702823</v>
       </c>
       <c r="Q46" t="n">
-        <v>2299.337630107745</v>
+        <v>2299.337630107744</v>
       </c>
       <c r="R46" t="n">
-        <v>2256.956805813346</v>
+        <v>2256.956805813345</v>
       </c>
       <c r="S46" t="n">
-        <v>2112.720554588246</v>
+        <v>2112.720554588245</v>
       </c>
       <c r="T46" t="n">
-        <v>1938.403572105846</v>
+        <v>1938.403572105844</v>
       </c>
       <c r="U46" t="n">
-        <v>1696.750338179562</v>
+        <v>1696.750338179561</v>
       </c>
       <c r="V46" t="n">
-        <v>1489.515482921749</v>
+        <v>1489.515482921747</v>
       </c>
       <c r="W46" t="n">
-        <v>1247.547945832861</v>
+        <v>1247.54794583286</v>
       </c>
       <c r="X46" t="n">
-        <v>1067.008027882917</v>
+        <v>1067.008027882916</v>
       </c>
       <c r="Y46" t="n">
-        <v>893.6650816874605</v>
+        <v>893.6650816874591</v>
       </c>
     </row>
   </sheetData>
@@ -8459,16 +8459,16 @@
         <v>235.7664149699872</v>
       </c>
       <c r="M8" t="n">
-        <v>230.3462332272727</v>
+        <v>237.2222789689842</v>
       </c>
       <c r="N8" t="n">
-        <v>236.0112893083342</v>
+        <v>236.2891093383024</v>
       </c>
       <c r="O8" t="n">
-        <v>236.9742571633982</v>
+        <v>236.69643713343</v>
       </c>
       <c r="P8" t="n">
-        <v>238.109041496981</v>
+        <v>231.2329957552695</v>
       </c>
       <c r="Q8" t="n">
         <v>212.3149906599047</v>
@@ -8532,22 +8532,22 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>144.4396646861023</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L9" t="n">
-        <v>145.4304255215856</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M9" t="n">
         <v>149.0100796637298</v>
       </c>
       <c r="N9" t="n">
-        <v>131.3417120833333</v>
+        <v>138.2177578250447</v>
       </c>
       <c r="O9" t="n">
-        <v>142.5962444444444</v>
+        <v>149.4722901861559</v>
       </c>
       <c r="P9" t="n">
-        <v>140.8504531560417</v>
+        <v>140.5726331260735</v>
       </c>
       <c r="Q9" t="n">
         <v>139.9817740860215</v>
@@ -8614,10 +8614,10 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>141.4829019929816</v>
+        <v>141.7607220229497</v>
       </c>
       <c r="M10" t="n">
-        <v>145.8018296893165</v>
+        <v>145.5240096593483</v>
       </c>
       <c r="N10" t="n">
         <v>134.5615902069446</v>
@@ -8687,7 +8687,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>29.70750509796633</v>
+        <v>95.42392497094386</v>
       </c>
       <c r="K11" t="n">
         <v>0</v>
@@ -8711,7 +8711,7 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -8924,7 +8924,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>95.4239249709488</v>
+        <v>0</v>
       </c>
       <c r="K14" t="n">
         <v>0</v>
@@ -8936,7 +8936,7 @@
         <v>0</v>
       </c>
       <c r="N14" t="n">
-        <v>0</v>
+        <v>95.42392497094397</v>
       </c>
       <c r="O14" t="n">
         <v>0</v>
@@ -9164,7 +9164,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
-        <v>0</v>
+        <v>321.8500633281002</v>
       </c>
       <c r="L17" t="n">
         <v>0</v>
@@ -9179,13 +9179,13 @@
         <v>0</v>
       </c>
       <c r="P17" t="n">
-        <v>43.81865279521526</v>
+        <v>0</v>
       </c>
       <c r="Q17" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R17" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9237,7 +9237,7 @@
         <v>0</v>
       </c>
       <c r="I18" t="n">
-        <v>6.963318810448982e-13</v>
+        <v>0</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -9398,7 +9398,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K20" t="n">
         <v>0</v>
@@ -9413,16 +9413,16 @@
         <v>0</v>
       </c>
       <c r="O20" t="n">
-        <v>43.8186527952156</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P20" t="n">
-        <v>0</v>
+        <v>110.1464972374282</v>
       </c>
       <c r="Q20" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R20" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9635,7 +9635,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>112.0661887926668</v>
+        <v>0</v>
       </c>
       <c r="K23" t="n">
         <v>0</v>
@@ -9644,13 +9644,13 @@
         <v>0</v>
       </c>
       <c r="M23" t="n">
-        <v>429.1701221935967</v>
+        <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>0</v>
+        <v>160.4361297235123</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P23" t="n">
         <v>0</v>
@@ -9872,10 +9872,10 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>31.01023811781903</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>324.1454125711647</v>
+        <v>0</v>
       </c>
       <c r="L26" t="n">
         <v>0</v>
@@ -9887,7 +9887,7 @@
         <v>0</v>
       </c>
       <c r="O26" t="n">
-        <v>0</v>
+        <v>355.1556506889758</v>
       </c>
       <c r="P26" t="n">
         <v>321.7987081714826</v>
@@ -10109,10 +10109,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>120.342615643927</v>
+        <v>0</v>
       </c>
       <c r="L29" t="n">
         <v>0</v>
@@ -10121,19 +10121,19 @@
         <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O29" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q29" t="n">
-        <v>212.3149906599047</v>
+        <v>71.12224384563521</v>
       </c>
       <c r="R29" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10185,7 +10185,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>8.526512829121202e-13</v>
       </c>
       <c r="J30" t="n">
         <v>0</v>
@@ -10346,7 +10346,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K32" t="n">
         <v>324.1454125711647</v>
@@ -10358,16 +10358,16 @@
         <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>0</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O32" t="n">
-        <v>90.76954830736702</v>
+        <v>0</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>212.3149906599047</v>
+        <v>34.83422972735437</v>
       </c>
       <c r="R32" t="n">
         <v>65.71641987298243</v>
@@ -10422,7 +10422,7 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>0</v>
+        <v>3.730349362740526e-13</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -10586,16 +10586,16 @@
         <v>0</v>
       </c>
       <c r="K35" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L35" t="n">
         <v>0</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>71.37734095806502</v>
       </c>
       <c r="N35" t="n">
-        <v>378.9892949878342</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
         <v>0</v>
@@ -10607,7 +10607,7 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>16.5334585413941</v>
+        <v>0</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,16 +10820,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>8.007625484763054</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L38" t="n">
         <v>0</v>
       </c>
       <c r="M38" t="n">
-        <v>0</v>
+        <v>71.37734095806502</v>
       </c>
       <c r="N38" t="n">
         <v>0</v>
@@ -10838,13 +10838,13 @@
         <v>0</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q38" t="n">
         <v>0</v>
       </c>
       <c r="R38" t="n">
-        <v>65.71641987298243</v>
+        <v>0</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -23270,7 +23270,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23306,13 +23306,13 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>62.21262516958327</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23321,7 +23321,7 @@
         <v>0</v>
       </c>
       <c r="X11" t="n">
-        <v>193.2336876382271</v>
+        <v>252.4625926342912</v>
       </c>
       <c r="Y11" t="n">
         <v>0</v>
@@ -23498,16 +23498,16 @@
         <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>0</v>
+        <v>256.5082725460333</v>
       </c>
       <c r="E14" t="n">
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G14" t="n">
-        <v>314.143349570327</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
         <v>0</v>
@@ -23555,7 +23555,7 @@
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>302.2658320988204</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>49.28886879961286</v>
+        <v>49.28886879961186</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23984,7 +23984,7 @@
         <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>0</v>
+        <v>49.2888687996108</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,7 +24017,7 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>49.2888687996136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
@@ -24604,22 +24604,22 @@
         <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>26.38412263177404</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>109.5817064561658</v>
+        <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>130.1864666922624</v>
       </c>
       <c r="H28" t="n">
-        <v>108.9156733475554</v>
+        <v>108.915673347555</v>
       </c>
       <c r="I28" t="n">
-        <v>46.98888286788073</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24844,10 +24844,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>110.5946210798038</v>
+        <v>95.39147737235281</v>
       </c>
       <c r="F31" t="n">
-        <v>94.37856274872468</v>
+        <v>109.5817064561654</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
@@ -24856,7 +24856,7 @@
         <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>60.51307884307271</v>
+        <v>60.51307884307224</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -25078,22 +25078,22 @@
         <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>110.9971608971513</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
-        <v>108.8156505255081</v>
+        <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0</v>
+        <v>107.8027359018698</v>
       </c>
       <c r="G34" t="n">
-        <v>0</v>
+        <v>115.2714455788704</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>3.261370058090876</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25631,10 +25631,10 @@
         <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>334.9552334536692</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
@@ -25676,19 +25676,19 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>62.21262516958326</v>
+        <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>141.4356779244607</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>67.27103207741555</v>
       </c>
       <c r="W41" t="n">
-        <v>302.2658320988204</v>
+        <v>0</v>
       </c>
       <c r="X41" t="n">
         <v>0</v>
@@ -25868,19 +25868,19 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>127.3463093107776</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>334.9552334536693</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>9.708499634375821</v>
+        <v>0</v>
       </c>
       <c r="H44" t="n">
-        <v>0</v>
+        <v>247.632627768728</v>
       </c>
       <c r="I44" t="n">
         <v>0</v>
@@ -25916,10 +25916,10 @@
         <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>156.9428335210276</v>
+        <v>0</v>
       </c>
       <c r="U44" t="n">
-        <v>204.0200353403094</v>
+        <v>0</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -25931,7 +25931,7 @@
         <v>0</v>
       </c>
       <c r="Y44" t="n">
-        <v>339.262802037461</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45">
@@ -26038,7 +26038,7 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>1.822542117224657e-12</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>648877.4328133886</v>
+        <v>648877.4328133882</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>648877.4328133886</v>
+        <v>648877.4328133882</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>697926.5779523784</v>
+        <v>697926.5779523783</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>702664.5234961587</v>
+        <v>702664.5234961585</v>
       </c>
     </row>
     <row r="10">
@@ -26187,7 +26187,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>707796.6816955041</v>
+        <v>707796.6816955039</v>
       </c>
     </row>
     <row r="11">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>639887.2426343053</v>
+        <v>639887.242634305</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>639887.2426343053</v>
+        <v>639887.2426343051</v>
       </c>
     </row>
   </sheetData>
@@ -26314,46 +26314,46 @@
         <v>757830.6133132604</v>
       </c>
       <c r="C2" t="n">
-        <v>757830.6133132601</v>
+        <v>757830.6133132604</v>
       </c>
       <c r="D2" t="n">
-        <v>758843.1798091849</v>
+        <v>758843.1798091847</v>
       </c>
       <c r="E2" t="n">
-        <v>714077.4290781625</v>
+        <v>714077.4290781622</v>
       </c>
       <c r="F2" t="n">
-        <v>714077.4290781625</v>
+        <v>714077.4290781619</v>
       </c>
       <c r="G2" t="n">
-        <v>755834.4977147465</v>
+        <v>755834.4977147463</v>
       </c>
       <c r="H2" t="n">
         <v>755834.4977147464</v>
       </c>
       <c r="I2" t="n">
-        <v>759463.6371244622</v>
+        <v>759463.6371244618</v>
       </c>
       <c r="J2" t="n">
-        <v>753569.8420931525</v>
+        <v>753569.842093153</v>
       </c>
       <c r="K2" t="n">
-        <v>753569.8420931529</v>
+        <v>753569.8420931533</v>
       </c>
       <c r="L2" t="n">
-        <v>754511.3902955892</v>
+        <v>754511.3902955895</v>
       </c>
       <c r="M2" t="n">
+        <v>759463.6371244619</v>
+      </c>
+      <c r="N2" t="n">
         <v>759463.6371244623</v>
       </c>
-      <c r="N2" t="n">
-        <v>759463.6371244624</v>
-      </c>
       <c r="O2" t="n">
+        <v>707191.1841481047</v>
+      </c>
+      <c r="P2" t="n">
         <v>707191.1841481046</v>
-      </c>
-      <c r="P2" t="n">
-        <v>707191.1841481043</v>
       </c>
     </row>
     <row r="3">
@@ -26369,7 +26369,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>2135.906088747859</v>
+        <v>2135.906088747824</v>
       </c>
       <c r="E3" t="n">
         <v>1166490.681173614</v>
@@ -26378,25 +26378,25 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>37633.60226541029</v>
+        <v>37633.60226541074</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>3377.382312941164</v>
+        <v>3377.382312940983</v>
       </c>
       <c r="J3" t="n">
-        <v>41413.61949129887</v>
+        <v>41413.61949129878</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-11</v>
       </c>
       <c r="L3" t="n">
-        <v>11678.51713689582</v>
+        <v>11678.5171368961</v>
       </c>
       <c r="M3" t="n">
-        <v>208021.0362460137</v>
+        <v>208021.0362460135</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -26424,40 +26424,40 @@
         <v>425420.8672695345</v>
       </c>
       <c r="E4" t="n">
-        <v>59855.46726059831</v>
+        <v>59855.46726059815</v>
       </c>
       <c r="F4" t="n">
-        <v>59855.46726059831</v>
+        <v>59855.46726059815</v>
       </c>
       <c r="G4" t="n">
-        <v>79798.26735468602</v>
+        <v>79798.26735468616</v>
       </c>
       <c r="H4" t="n">
-        <v>79798.26735468602</v>
+        <v>79798.26735468615</v>
       </c>
       <c r="I4" t="n">
-        <v>81305.41746651454</v>
+        <v>81305.4174665146</v>
       </c>
       <c r="J4" t="n">
-        <v>72638.56530812132</v>
+        <v>72638.5653081215</v>
       </c>
       <c r="K4" t="n">
-        <v>72638.56530812131</v>
+        <v>72638.56530812162</v>
       </c>
       <c r="L4" t="n">
-        <v>73620.33863305155</v>
+        <v>73620.33863305178</v>
       </c>
       <c r="M4" t="n">
-        <v>83375.54921344899</v>
+        <v>83375.54921344901</v>
       </c>
       <c r="N4" t="n">
-        <v>83375.54921344895</v>
+        <v>83375.54921344898</v>
       </c>
       <c r="O4" t="n">
-        <v>56995.66948357395</v>
+        <v>56995.66948357392</v>
       </c>
       <c r="P4" t="n">
-        <v>56995.66948357395</v>
+        <v>56995.66948357385</v>
       </c>
     </row>
     <row r="5">
@@ -26476,40 +26476,40 @@
         <v>34045.66358109605</v>
       </c>
       <c r="E5" t="n">
-        <v>79720.73742684585</v>
+        <v>79720.73742684578</v>
       </c>
       <c r="F5" t="n">
-        <v>79720.73742684585</v>
+        <v>79720.73742684578</v>
       </c>
       <c r="G5" t="n">
-        <v>86871.72496269984</v>
+        <v>86871.72496269981</v>
       </c>
       <c r="H5" t="n">
-        <v>86871.72496269984</v>
+        <v>86871.72496269981</v>
       </c>
       <c r="I5" t="n">
-        <v>87643.92740111885</v>
+        <v>87643.9274011188</v>
       </c>
       <c r="J5" t="n">
-        <v>90974.13977122532</v>
+        <v>90974.13977122525</v>
       </c>
       <c r="K5" t="n">
-        <v>90974.13977122532</v>
+        <v>90974.13977122527</v>
       </c>
       <c r="L5" t="n">
-        <v>90705.63246565835</v>
+        <v>90705.63246565827</v>
       </c>
       <c r="M5" t="n">
-        <v>86264.06787191605</v>
+        <v>86264.06787191606</v>
       </c>
       <c r="N5" t="n">
-        <v>86264.06787191605</v>
+        <v>86264.06787191606</v>
       </c>
       <c r="O5" t="n">
+        <v>78255.49332178173</v>
+      </c>
+      <c r="P5" t="n">
         <v>78255.49332178175</v>
-      </c>
-      <c r="P5" t="n">
-        <v>78255.49332178176</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>298679.8741471569</v>
+        <v>298675.4605692888</v>
       </c>
       <c r="C6" t="n">
-        <v>298679.8741471566</v>
+        <v>298675.4605692887</v>
       </c>
       <c r="D6" t="n">
-        <v>297240.7428698064</v>
+        <v>297239.0659581435</v>
       </c>
       <c r="E6" t="n">
-        <v>-591989.4567828961</v>
+        <v>-592112.1222100479</v>
       </c>
       <c r="F6" t="n">
-        <v>574501.2243907184</v>
+        <v>574378.5589635657</v>
       </c>
       <c r="G6" t="n">
-        <v>551530.9031319504</v>
+        <v>551521.0946470585</v>
       </c>
       <c r="H6" t="n">
-        <v>589164.5053973605</v>
+        <v>589154.6969124693</v>
       </c>
       <c r="I6" t="n">
-        <v>587136.9099438877</v>
+        <v>587136.9099438874</v>
       </c>
       <c r="J6" t="n">
-        <v>548543.517522507</v>
+        <v>548527.5883467472</v>
       </c>
       <c r="K6" t="n">
-        <v>589957.1370138064</v>
+        <v>589941.2078380461</v>
       </c>
       <c r="L6" t="n">
-        <v>578506.9020599836</v>
+        <v>578493.5176090944</v>
       </c>
       <c r="M6" t="n">
-        <v>381802.9837930836</v>
+        <v>381802.9837930834</v>
       </c>
       <c r="N6" t="n">
-        <v>589824.0200390974</v>
+        <v>589824.0200390972</v>
       </c>
       <c r="O6" t="n">
-        <v>571940.0213427489</v>
+        <v>571798.744442813</v>
       </c>
       <c r="P6" t="n">
-        <v>571940.0213427485</v>
+        <v>571798.7444428129</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G2" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="H2" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="I2" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="J2" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="K2" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="L2" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="M2" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="N2" t="n">
         <v>69.99530231853382</v>
       </c>
       <c r="O2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="3">
@@ -26796,37 +26796,37 @@
         <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>855.5008650250576</v>
+        <v>855.5008650250563</v>
       </c>
       <c r="F4" t="n">
-        <v>855.5008650250576</v>
+        <v>855.5008650250563</v>
       </c>
       <c r="G4" t="n">
-        <v>955.3905400235104</v>
+        <v>955.3905400235097</v>
       </c>
       <c r="H4" t="n">
-        <v>955.3905400235104</v>
+        <v>955.3905400235097</v>
       </c>
       <c r="I4" t="n">
-        <v>968.0912380238232</v>
+        <v>968.0912380238218</v>
       </c>
       <c r="J4" t="n">
-        <v>1055.987337041366</v>
+        <v>1055.987337041364</v>
       </c>
       <c r="K4" t="n">
-        <v>1055.987337041366</v>
+        <v>1055.987337041364</v>
       </c>
       <c r="L4" t="n">
-        <v>1049.111291299654</v>
+        <v>1049.111291299652</v>
       </c>
       <c r="M4" t="n">
-        <v>931.2911304007455</v>
+        <v>931.2911304007458</v>
       </c>
       <c r="N4" t="n">
-        <v>931.2911304007455</v>
+        <v>931.2911304007458</v>
       </c>
       <c r="O4" t="n">
-        <v>831.4014554022926</v>
+        <v>831.4014554022924</v>
       </c>
       <c r="P4" t="n">
         <v>831.4014554022926</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>12.81917586682417</v>
+        <v>12.81917586682454</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,16 +26929,16 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>23.02016569994123</v>
+        <v>23.02016569994126</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
       <c r="L2" t="n">
-        <v>14.59814642111978</v>
+        <v>14.59814642112013</v>
       </c>
       <c r="M2" t="n">
-        <v>32.37699019747286</v>
+        <v>32.37699019747238</v>
       </c>
       <c r="N2" t="n">
         <v>0</v>
@@ -27015,25 +27015,25 @@
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>6.87604574171155</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="E4" t="n">
-        <v>848.6248192833461</v>
+        <v>848.6248192833449</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>99.88967499845285</v>
+        <v>99.88967499845342</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>12.70069800031274</v>
+        <v>12.70069800031206</v>
       </c>
       <c r="J4" t="n">
-        <v>87.8960990175425</v>
+        <v>87.89609901754204</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>730.8046583844375</v>
+        <v>730.8046583844384</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859258</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>12.81917586682417</v>
+        <v>12.81917586682454</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>23.02016569994123</v>
+        <v>23.02016569994126</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>6.394884621840902e-14</v>
       </c>
     </row>
     <row r="3">
@@ -27261,16 +27261,16 @@
         <v>0</v>
       </c>
       <c r="L4" t="n">
-        <v>6.87604574171155</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="M4" t="n">
-        <v>848.6248192833461</v>
+        <v>848.6248192833449</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
       </c>
       <c r="O4" t="n">
-        <v>99.88967499845285</v>
+        <v>99.88967499845342</v>
       </c>
       <c r="P4" t="n">
         <v>0</v>
@@ -27874,7 +27874,7 @@
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>5.892868265313084</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27895,13 +27895,13 @@
         <v>0</v>
       </c>
       <c r="Q8" t="n">
-        <v>3.114653472833368</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
         <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>209.0200695862453</v>
+        <v>202.9636484969459</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
@@ -27916,7 +27916,7 @@
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>362.8550549367576</v>
       </c>
       <c r="Y8" t="n">
         <v>386.2379386560536</v>
@@ -27944,16 +27944,16 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>130.4674714214992</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H9" t="n">
-        <v>105.359398494785</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I9" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27986,13 +27986,13 @@
         <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9413820809748</v>
+        <v>219.8849609916754</v>
       </c>
       <c r="V9" t="n">
-        <v>232.8005871494253</v>
+        <v>225.9245414077138</v>
       </c>
       <c r="W9" t="n">
-        <v>246.385153397878</v>
+        <v>244.8189374192082</v>
       </c>
       <c r="X9" t="n">
         <v>205.7729852034775</v>
@@ -28017,13 +28017,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>143.0989822923763</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>138.5450022812198</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>161.1149336167473</v>
+        <v>167.9909793584588</v>
       </c>
       <c r="H10" t="n">
         <v>162.2271725074396</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>15.39344608417142</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,16 +28050,16 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
       </c>
       <c r="R10" t="n">
-        <v>177.2933913771695</v>
+        <v>170.417345635458</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>217.1405522952608</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28071,10 +28071,10 @@
         <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
-        <v>286.522998336591</v>
+        <v>280.4665772472916</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>218.8336096473257</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,25 +28087,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I11" t="n">
         <v>41.57692977292598</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y11" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="K13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y13" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="14">
@@ -28324,25 +28324,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I14" t="n">
         <v>41.57692977292598</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y14" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="C16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="D16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="E16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="F16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="G16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="H16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="I16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="J16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859253</v>
       </c>
       <c r="K16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="L16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="M16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="N16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="O16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="P16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Q16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="R16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="S16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="T16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="U16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="V16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="W16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="X16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
       <c r="Y16" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859257</v>
       </c>
     </row>
     <row r="17">
@@ -28561,25 +28561,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="C17" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="D17" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="E17" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="F17" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="G17" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="H17" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="I17" t="n">
         <v>41.57692977292598</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="T17" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="U17" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="V17" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="W17" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="X17" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="Y17" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="C19" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="D19" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="E19" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="F19" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="G19" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="H19" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="I19" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>59.79431248541675</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>0</v>
+        <v>46.9411549800563</v>
       </c>
       <c r="P19" t="n">
-        <v>59.79431248541675</v>
+        <v>0</v>
       </c>
       <c r="Q19" t="n">
-        <v>46.94115498006252</v>
+        <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="S19" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="T19" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="U19" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="V19" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="W19" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="X19" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="Y19" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="C20" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="D20" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="E20" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="F20" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="G20" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="H20" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="T20" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="U20" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="V20" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="W20" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="X20" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="Y20" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="C22" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="D22" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="E22" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="F22" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="G22" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="H22" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="I22" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="J22" t="n">
-        <v>59.79431248541675</v>
+        <v>46.94115498005604</v>
       </c>
       <c r="K22" t="n">
         <v>0</v>
       </c>
       <c r="L22" t="n">
-        <v>59.79431248541675</v>
+        <v>0</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="N22" t="n">
-        <v>46.94115498006255</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
         <v>0</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="Q22" t="n">
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="S22" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="T22" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="U22" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="V22" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="W22" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="X22" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="Y22" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
     </row>
     <row r="23">
@@ -29035,25 +29035,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="C23" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="D23" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="E23" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="F23" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="G23" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="H23" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="I23" t="n">
         <v>41.57692977292598</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="T23" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="U23" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="V23" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="W23" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="X23" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="Y23" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
     </row>
     <row r="24">
@@ -29193,31 +29193,31 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="C25" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="D25" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="E25" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="F25" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="G25" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="H25" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="I25" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="J25" t="n">
-        <v>59.79431248541675</v>
+        <v>0</v>
       </c>
       <c r="K25" t="n">
         <v>0</v>
@@ -29226,43 +29226,43 @@
         <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>0</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="N25" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="O25" t="n">
-        <v>46.94115498006272</v>
+        <v>0</v>
       </c>
       <c r="P25" t="n">
         <v>0</v>
       </c>
       <c r="Q25" t="n">
-        <v>0</v>
+        <v>46.94115498005655</v>
       </c>
       <c r="R25" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="S25" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="T25" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="U25" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="V25" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="W25" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="X25" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
       <c r="Y25" t="n">
-        <v>59.79431248541675</v>
+        <v>59.79431248541712</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="C26" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="D26" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="E26" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="F26" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="G26" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="H26" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="I26" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="T26" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="U26" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="V26" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="W26" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="X26" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="Y26" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="C28" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="D28" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="E28" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="F28" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="G28" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="H28" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="I28" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="J28" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="K28" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="L28" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="M28" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="N28" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="O28" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="P28" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="Q28" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="R28" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="S28" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="T28" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="U28" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="V28" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="W28" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="X28" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
       <c r="Y28" t="n">
-        <v>35.83934156676541</v>
+        <v>35.8393415667658</v>
       </c>
     </row>
     <row r="29">
@@ -29509,28 +29509,28 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="C29" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="D29" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="E29" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="F29" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="G29" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="H29" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="I29" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -29560,25 +29560,25 @@
         <v>0</v>
       </c>
       <c r="S29" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="T29" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="U29" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="V29" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="W29" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="X29" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="Y29" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
     </row>
     <row r="30">
@@ -29667,76 +29667,76 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="C31" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="D31" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="E31" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="F31" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="G31" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="H31" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="I31" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="J31" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="K31" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="L31" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="M31" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="N31" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="O31" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="P31" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="Q31" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="R31" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="S31" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="T31" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="U31" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="V31" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="W31" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="X31" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
       <c r="Y31" t="n">
-        <v>35.83934156676541</v>
+        <v>35.83934156676587</v>
       </c>
     </row>
     <row r="32">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="C32" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="D32" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="E32" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="F32" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="G32" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="H32" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="I32" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="T32" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="U32" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="V32" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="W32" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="X32" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="Y32" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="C34" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="D34" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="E34" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="F34" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="G34" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="H34" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="I34" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="J34" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="K34" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="L34" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="M34" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="N34" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="O34" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="P34" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="Q34" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="R34" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="S34" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="T34" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="U34" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="V34" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="W34" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="X34" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
       <c r="Y34" t="n">
-        <v>37.61831212106102</v>
+        <v>37.61831212106145</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="C35" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="D35" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="E35" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="F35" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="G35" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="H35" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="T35" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="U35" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="V35" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="W35" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="X35" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="Y35" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
     </row>
     <row r="36">
@@ -30141,28 +30141,28 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="C37" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="D37" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="E37" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="F37" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="G37" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="H37" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="I37" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -30189,28 +30189,28 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="S37" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="T37" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853385</v>
       </c>
       <c r="U37" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="V37" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="W37" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="X37" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
       <c r="Y37" t="n">
-        <v>69.99530231853387</v>
+        <v>69.99530231853383</v>
       </c>
     </row>
     <row r="38">
@@ -30411,7 +30411,7 @@
         <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>4.547473508864641e-13</v>
+        <v>0</v>
       </c>
       <c r="N40" t="n">
         <v>0</v>
@@ -30457,25 +30457,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I41" t="n">
         <v>41.57692977292598</v>
@@ -30508,25 +30508,25 @@
         <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y41" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I44" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859249</v>
       </c>
     </row>
   </sheetData>
@@ -31847,7 +31847,7 @@
         <v>508.9565619138795</v>
       </c>
       <c r="M12" t="n">
-        <v>593.9283018233483</v>
+        <v>593.9283018233485</v>
       </c>
       <c r="N12" t="n">
         <v>609.6478166837924</v>
@@ -32078,7 +32078,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353166</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
         <v>508.9565619138795</v>
@@ -32093,7 +32093,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q15" t="n">
         <v>299.2156706987486</v>
@@ -32330,7 +32330,7 @@
         <v>557.7086478970249</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q18" t="n">
         <v>299.2156706987486</v>
@@ -32549,7 +32549,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J21" t="n">
-        <v>221.4611312026446</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K21" t="n">
         <v>378.5123470353157</v>
@@ -32564,7 +32564,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O21" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970257</v>
       </c>
       <c r="P21" t="n">
         <v>447.6103584002926</v>
@@ -32786,7 +32786,7 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026445</v>
       </c>
       <c r="K24" t="n">
         <v>378.5123470353157</v>
@@ -32935,43 +32935,43 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H26" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I26" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J26" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L26" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M26" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N26" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O26" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P26" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q26" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R26" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S26" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T26" t="n">
         <v>19.1778794245112</v>
@@ -33020,40 +33020,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I27" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J27" t="n">
-        <v>221.4611312026443</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K27" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L27" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M27" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N27" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O27" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P27" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S27" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T27" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U27" t="n">
         <v>0.1542136840462215</v>
@@ -33093,13 +33093,13 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H28" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I28" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J28" t="n">
         <v>138.937596729739</v>
@@ -33108,16 +33108,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L28" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M28" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N28" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O28" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P28" t="n">
         <v>237.6785118802169</v>
@@ -33126,16 +33126,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R28" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S28" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T28" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U28" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -33263,7 +33263,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353162</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33500,7 +33500,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K33" t="n">
-        <v>378.5123470353167</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
         <v>508.9565619138795</v>
@@ -33737,7 +33737,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K36" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
         <v>508.9565619138795</v>
@@ -33749,7 +33749,7 @@
         <v>609.6478166837924</v>
       </c>
       <c r="O36" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P36" t="n">
         <v>447.6103584002926</v>
@@ -33974,7 +33974,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K39" t="n">
-        <v>378.5123470353159</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
         <v>508.9565619138795</v>
@@ -33983,7 +33983,7 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837926</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -34208,10 +34208,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J42" t="n">
-        <v>221.4611312026437</v>
+        <v>221.4611312026441</v>
       </c>
       <c r="K42" t="n">
-        <v>378.5123470353161</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L42" t="n">
         <v>508.9565619138795</v>
@@ -34357,43 +34357,43 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H44" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I44" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J44" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K44" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L44" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M44" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N44" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O44" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P44" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q44" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R44" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S44" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T44" t="n">
         <v>19.1778794245112</v>
@@ -34442,40 +34442,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I45" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M45" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N45" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O45" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P45" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q45" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987494</v>
       </c>
       <c r="R45" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S45" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T45" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U45" t="n">
         <v>0.1542136840462215</v>
@@ -34515,13 +34515,13 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H46" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I46" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J46" t="n">
         <v>138.937596729739</v>
@@ -34530,16 +34530,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L46" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M46" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N46" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O46" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P46" t="n">
         <v>237.6785118802169</v>
@@ -34548,16 +34548,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R46" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S46" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T46" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U46" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -35179,16 +35179,16 @@
         <v>0</v>
       </c>
       <c r="M8" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="N8" t="n">
-        <v>6.598225711743296</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O8" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="P8" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="Q8" t="n">
         <v>0</v>
@@ -35252,22 +35252,22 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>6.598225711743296</v>
+        <v>0</v>
       </c>
       <c r="L9" t="n">
-        <v>6.876045741711437</v>
+        <v>0</v>
       </c>
       <c r="M9" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="N9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="O9" t="n">
-        <v>0</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="P9" t="n">
-        <v>6.876045741711437</v>
+        <v>6.598225711743297</v>
       </c>
       <c r="Q9" t="n">
         <v>0</v>
@@ -35334,10 +35334,10 @@
         <v>0</v>
       </c>
       <c r="L10" t="n">
+        <v>6.876045741711437</v>
+      </c>
+      <c r="M10" t="n">
         <v>6.598225711743296</v>
-      </c>
-      <c r="M10" t="n">
-        <v>6.876045741711437</v>
       </c>
       <c r="N10" t="n">
         <v>6.876045741711437</v>
@@ -35407,7 +35407,7 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>220.4945060666788</v>
+        <v>286.2109259396564</v>
       </c>
       <c r="K11" t="n">
         <v>337.1912865554004</v>
@@ -35431,7 +35431,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R11" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S11" t="n">
         <v>0</v>
@@ -35495,7 +35495,7 @@
         <v>370.4021821340053</v>
       </c>
       <c r="M12" t="n">
-        <v>451.79426790133</v>
+        <v>451.7942679013302</v>
       </c>
       <c r="N12" t="n">
         <v>478.3061046004591</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165877</v>
       </c>
       <c r="K13" t="n">
         <v>253.0227961629121</v>
@@ -35574,7 +35574,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M13" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N13" t="n">
         <v>391.8320827861326</v>
@@ -35583,7 +35583,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P13" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q13" t="n">
         <v>125.3693751564862</v>
@@ -35644,7 +35644,7 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>286.2109259396613</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
         <v>337.1912865554004</v>
@@ -35656,7 +35656,7 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.3018354129113</v>
+        <v>647.7257603838552</v>
       </c>
       <c r="O14" t="n">
         <v>508.053000888219</v>
@@ -35726,7 +35726,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609576</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
         <v>370.4021821340053</v>
@@ -35741,7 +35741,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q15" t="n">
         <v>159.2338966127271</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165873</v>
       </c>
       <c r="K16" t="n">
         <v>253.0227961629121</v>
@@ -35811,7 +35811,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M16" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N16" t="n">
         <v>391.8320827861326</v>
@@ -35820,7 +35820,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P16" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q16" t="n">
         <v>125.3693751564862</v>
@@ -35884,7 +35884,7 @@
         <v>359.8836161407863</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554004</v>
+        <v>659.0413498835006</v>
       </c>
       <c r="L17" t="n">
         <v>455.5901143923319</v>
@@ -35899,13 +35899,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P17" t="n">
-        <v>442.5806390145869</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q17" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R17" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>415.1124034525805</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859624</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q18" t="n">
         <v>159.2338966127271</v>
@@ -36042,25 +36042,25 @@
         <v>45.5784166130662</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>265.8419720297366</v>
       </c>
       <c r="L19" t="n">
-        <v>319.7573721701981</v>
+        <v>379.5516846556152</v>
       </c>
       <c r="M19" t="n">
         <v>347.6333793934838</v>
       </c>
       <c r="N19" t="n">
-        <v>404.6512586529568</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O19" t="n">
-        <v>302.3531302226397</v>
+        <v>349.294285202696</v>
       </c>
       <c r="P19" t="n">
-        <v>294.7513836305271</v>
+        <v>234.9570711451104</v>
       </c>
       <c r="Q19" t="n">
-        <v>125.3353935179561</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36118,7 +36118,7 @@
         <v>0</v>
       </c>
       <c r="J20" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K20" t="n">
         <v>337.1912865554004</v>
@@ -36133,16 +36133,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O20" t="n">
-        <v>551.8716536834346</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P20" t="n">
-        <v>398.7619862193716</v>
+        <v>508.9084834567998</v>
       </c>
       <c r="Q20" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R20" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36197,7 +36197,7 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>94.6235045359779</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K21" t="n">
         <v>240.6709080609567</v>
@@ -36212,7 +36212,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O21" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525813</v>
       </c>
       <c r="P21" t="n">
         <v>313.6359509859624</v>
@@ -36276,25 +36276,25 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>105.3727290984829</v>
+        <v>92.51957159312224</v>
       </c>
       <c r="K22" t="n">
         <v>206.0476595443195</v>
       </c>
       <c r="L22" t="n">
-        <v>379.5516846556148</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>407.4276918789009</v>
       </c>
       <c r="N22" t="n">
-        <v>391.7981011476026</v>
+        <v>344.8569461675401</v>
       </c>
       <c r="O22" t="n">
         <v>302.3531302226397</v>
       </c>
       <c r="P22" t="n">
-        <v>234.9570711451104</v>
+        <v>294.7513836305275</v>
       </c>
       <c r="Q22" t="n">
         <v>78.39423853789363</v>
@@ -36355,7 +36355,7 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>302.8531897613793</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
         <v>337.1912865554004</v>
@@ -36364,13 +36364,13 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M23" t="n">
-        <v>968.0912380238232</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129113</v>
+        <v>712.7379651364236</v>
       </c>
       <c r="O23" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P23" t="n">
         <v>398.7619862193716</v>
@@ -36434,7 +36434,7 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.62350453597769</v>
+        <v>94.6235045359778</v>
       </c>
       <c r="K24" t="n">
         <v>240.6709080609567</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>105.3727290984829</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K25" t="n">
         <v>206.0476595443195</v>
@@ -36522,19 +36522,19 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M25" t="n">
-        <v>347.6333793934838</v>
+        <v>407.4276918789009</v>
       </c>
       <c r="N25" t="n">
-        <v>404.6512586529568</v>
+        <v>404.6512586529572</v>
       </c>
       <c r="O25" t="n">
-        <v>349.2942852027024</v>
+        <v>302.3531302226397</v>
       </c>
       <c r="P25" t="n">
         <v>234.9570711451104</v>
       </c>
       <c r="Q25" t="n">
-        <v>78.39423853789363</v>
+        <v>125.3353935179502</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,31 +36592,31 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>221.7972390865315</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K26" t="n">
-        <v>661.3366991265651</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L26" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O26" t="n">
-        <v>508.053000888219</v>
+        <v>863.2086515771949</v>
       </c>
       <c r="P26" t="n">
-        <v>720.5606943908542</v>
+        <v>720.5606943908545</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R26" t="n">
-        <v>59.61319854222472</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S26" t="n">
         <v>0</v>
@@ -36671,28 +36671,28 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>94.6235045359776</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K27" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L27" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M27" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N27" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O27" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P27" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,28 +36750,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>81.41775817983159</v>
+        <v>81.41775817983202</v>
       </c>
       <c r="K28" t="n">
-        <v>241.8870011110849</v>
+        <v>241.8870011110854</v>
       </c>
       <c r="L28" t="n">
-        <v>355.5967137369635</v>
+        <v>355.5967137369639</v>
       </c>
       <c r="M28" t="n">
-        <v>383.4727209602492</v>
+        <v>383.4727209602497</v>
       </c>
       <c r="N28" t="n">
-        <v>380.6962877343054</v>
+        <v>380.6962877343059</v>
       </c>
       <c r="O28" t="n">
-        <v>338.1924717894051</v>
+        <v>338.1924717894056</v>
       </c>
       <c r="P28" t="n">
-        <v>270.7964127118758</v>
+        <v>270.7964127118763</v>
       </c>
       <c r="Q28" t="n">
-        <v>114.233580104659</v>
+        <v>114.2335801046595</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36829,10 +36829,10 @@
         <v>0</v>
       </c>
       <c r="J29" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>457.5339021993274</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L29" t="n">
         <v>455.5901143923319</v>
@@ -36841,19 +36841,19 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O29" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P29" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q29" t="n">
-        <v>463.1092954636241</v>
+        <v>321.9165486493546</v>
       </c>
       <c r="R29" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36911,7 +36911,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609572</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -36987,28 +36987,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>81.41775817983159</v>
+        <v>81.41775817983206</v>
       </c>
       <c r="K31" t="n">
-        <v>241.8870011110849</v>
+        <v>241.8870011110854</v>
       </c>
       <c r="L31" t="n">
-        <v>355.5967137369635</v>
+        <v>355.5967137369639</v>
       </c>
       <c r="M31" t="n">
-        <v>383.4727209602492</v>
+        <v>383.4727209602497</v>
       </c>
       <c r="N31" t="n">
-        <v>380.6962877343054</v>
+        <v>380.6962877343059</v>
       </c>
       <c r="O31" t="n">
-        <v>338.1924717894051</v>
+        <v>338.1924717894056</v>
       </c>
       <c r="P31" t="n">
-        <v>270.7964127118758</v>
+        <v>270.7964127118763</v>
       </c>
       <c r="Q31" t="n">
-        <v>114.233580104659</v>
+        <v>114.2335801046595</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -37066,7 +37066,7 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K32" t="n">
         <v>661.3366991265651</v>
@@ -37078,16 +37078,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N32" t="n">
-        <v>552.3018354129113</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O32" t="n">
-        <v>598.822549195586</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P32" t="n">
         <v>398.7619862193716</v>
       </c>
       <c r="Q32" t="n">
-        <v>463.1092954636241</v>
+        <v>285.6285345310738</v>
       </c>
       <c r="R32" t="n">
         <v>125.3296184152072</v>
@@ -37148,7 +37148,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K33" t="n">
-        <v>240.6709080609577</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
         <v>370.4021821340053</v>
@@ -37224,28 +37224,28 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>83.19672873412722</v>
+        <v>83.19672873412765</v>
       </c>
       <c r="K34" t="n">
-        <v>243.6659716653805</v>
+        <v>243.665971665381</v>
       </c>
       <c r="L34" t="n">
-        <v>357.3756842912591</v>
+        <v>357.3756842912595</v>
       </c>
       <c r="M34" t="n">
-        <v>385.2516915145448</v>
+        <v>385.2516915145452</v>
       </c>
       <c r="N34" t="n">
-        <v>382.475258288601</v>
+        <v>382.4752582886015</v>
       </c>
       <c r="O34" t="n">
-        <v>339.9714423437007</v>
+        <v>339.9714423437011</v>
       </c>
       <c r="P34" t="n">
-        <v>272.5753832661714</v>
+        <v>272.5753832661718</v>
       </c>
       <c r="Q34" t="n">
-        <v>116.0125506589546</v>
+        <v>116.0125506589551</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,16 +37306,16 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L35" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M35" t="n">
-        <v>538.9211158302265</v>
+        <v>610.2984567882916</v>
       </c>
       <c r="N35" t="n">
-        <v>931.2911304007455</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
         <v>508.053000888219</v>
@@ -37327,7 +37327,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>76.14665708361882</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37385,7 +37385,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K36" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
         <v>370.4021821340053</v>
@@ -37397,7 +37397,7 @@
         <v>478.3061046004591</v>
       </c>
       <c r="O36" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P36" t="n">
         <v>313.6359509859624</v>
@@ -37540,16 +37540,16 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>198.7946264534756</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L38" t="n">
         <v>455.5901143923319</v>
       </c>
       <c r="M38" t="n">
-        <v>538.9211158302265</v>
+        <v>610.2984567882916</v>
       </c>
       <c r="N38" t="n">
         <v>552.3018354129113</v>
@@ -37558,13 +37558,13 @@
         <v>508.053000888219</v>
       </c>
       <c r="P38" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q38" t="n">
         <v>250.7943048037194</v>
       </c>
       <c r="R38" t="n">
-        <v>125.3296184152072</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S38" t="n">
         <v>0</v>
@@ -37622,7 +37622,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K39" t="n">
-        <v>240.6709080609569</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
         <v>370.4021821340053</v>
@@ -37631,7 +37631,7 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004593</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -37707,7 +37707,7 @@
         <v>319.7573721701981</v>
       </c>
       <c r="M40" t="n">
-        <v>347.6333793934842</v>
+        <v>347.6333793934838</v>
       </c>
       <c r="N40" t="n">
         <v>344.8569461675401</v>
@@ -37856,10 +37856,10 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>94.62350453597705</v>
+        <v>94.62350453597746</v>
       </c>
       <c r="K42" t="n">
-        <v>240.6709080609571</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L42" t="n">
         <v>370.4021821340053</v>
@@ -37935,7 +37935,7 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K43" t="n">
         <v>253.0227961629121</v>
@@ -37944,7 +37944,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M43" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N43" t="n">
         <v>391.8320827861326</v>
@@ -37953,7 +37953,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P43" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q43" t="n">
         <v>125.3693751564862</v>
@@ -38014,31 +38014,31 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923322</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M44" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N44" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.0530008882191</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P44" t="n">
-        <v>398.7619862193719</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>250.7943048037195</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
-        <v>59.61319854222478</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M45" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N45" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O45" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P45" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q45" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127279</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,28 +38172,28 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165881</v>
+        <v>92.5535532316587</v>
       </c>
       <c r="K46" t="n">
-        <v>253.0227961629122</v>
+        <v>253.022796162912</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
-        <v>391.8320827861327</v>
+        <v>391.8320827861326</v>
       </c>
       <c r="O46" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412322</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
-        <v>125.3693751564862</v>
+        <v>125.3693751564861</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
